--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
@@ -1016,100 +1016,100 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0970281470890567</v>
+        <v>0.08516854811437806</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.007638635494563779</v>
       </c>
       <c r="AQ2">
-        <v>0.3471024419624646</v>
+        <v>0.2789032759259641</v>
       </c>
       <c r="AR2">
-        <v>0.03774076030232729</v>
+        <v>0.03923809473610632</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.00159525613373561</v>
       </c>
       <c r="AT2">
-        <v>0.01889828299158882</v>
+        <v>0.02464066394083077</v>
       </c>
       <c r="AU2">
-        <v>0.05106817428187318</v>
+        <v>0.04956295807748531</v>
       </c>
       <c r="AV2">
-        <v>0.00144939465531818</v>
+        <v>0.01112285862560076</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>0.0002123914666817545</v>
       </c>
       <c r="AX2">
-        <v>0.1070399038557725</v>
+        <v>0.09292474302076524</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>0.008837507906814798</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.004634623135164612</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>0.005970055510201395</v>
       </c>
       <c r="BB2">
-        <v>0.07891608145202116</v>
+        <v>0.0711369735854048</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.005361624073570296</v>
       </c>
       <c r="BD2">
-        <v>0.01173374193621909</v>
+        <v>0.01909023177042466</v>
       </c>
       <c r="BE2">
-        <v>0.08829431762362937</v>
+        <v>0.07840237458545171</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.003757536435140332</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.007540549381637541</v>
       </c>
       <c r="BH2">
-        <v>0.06009597825228947</v>
+        <v>0.05655687620821654</v>
       </c>
       <c r="BI2">
-        <v>0.04084009188429363</v>
+        <v>0.04163917382635851</v>
       </c>
       <c r="BJ2">
-        <v>0.009679151319853337</v>
+        <v>0.01749852257845291</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.0009653376171561808</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>0.0004523141218994786</v>
       </c>
       <c r="BM2">
-        <v>0.008848039210353258</v>
+        <v>0.01685465281008499</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.00521031324482265</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.000456386758559399</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>2.320701041086589E-06</v>
       </c>
       <c r="BQ2">
-        <v>0.003961178486546742</v>
+        <v>0.01306875937126094</v>
       </c>
       <c r="BR2">
-        <v>0.01987769686843175</v>
+        <v>0.02539942437616903</v>
       </c>
       <c r="BS2">
-        <v>0.01742661782796084</v>
+        <v>0.02350055215905173</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.002656464307004423</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1234,100 +1234,100 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.09854416000318851</v>
+        <v>0.0857002670956465</v>
       </c>
       <c r="AP3">
-        <v>0.2330765455177927</v>
+        <v>0.1890461935933762</v>
       </c>
       <c r="AQ3">
-        <v>0.05149811965484324</v>
+        <v>0.04956014656443426</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.0001989547730391222</v>
       </c>
       <c r="AS3">
-        <v>0.02070768782553846</v>
+        <v>0.02590736071296167</v>
       </c>
       <c r="AT3">
-        <v>0.03378281327260134</v>
+        <v>0.03595149208127125</v>
       </c>
       <c r="AU3">
-        <v>0.02486491549511197</v>
+        <v>0.02910088577780513</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>5.132133393345735E-05</v>
       </c>
       <c r="AW3">
-        <v>0.1712719673311986</v>
+        <v>0.1415687674698234</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>0.0002792704462042901</v>
       </c>
       <c r="AY3">
-        <v>0.007486862149117706</v>
+        <v>0.01575130443425728</v>
       </c>
       <c r="AZ3">
-        <v>0.02792923295616515</v>
+        <v>0.03145485226612948</v>
       </c>
       <c r="BA3">
-        <v>0.05540628987751536</v>
+        <v>0.05256234912724426</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.002676939309930768</v>
       </c>
       <c r="BC3">
-        <v>0.07510452117666075</v>
+        <v>0.06769425923342286</v>
       </c>
       <c r="BD3">
-        <v>0.05181573028065167</v>
+        <v>0.04980413067475936</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>0.006510181166959709</v>
       </c>
       <c r="BF3">
-        <v>0.03316943044581053</v>
+        <v>0.03548029983793137</v>
       </c>
       <c r="BG3">
-        <v>0.02028851533805935</v>
+        <v>0.02558535817866346</v>
       </c>
       <c r="BH3">
-        <v>0.08118338568956357</v>
+        <v>0.07236395926689111</v>
       </c>
       <c r="BI3">
-        <v>0.0003111467737024797</v>
+        <v>0.01023901866812264</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>0.0007662616005865862</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.004021469802913399</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>0.009994359778589416</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.006917657032937319</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>0.0005727799414455385</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.0003441378246944437</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.002845595931612141</v>
       </c>
       <c r="BQ3">
-        <v>0.004100466973406413</v>
+        <v>0.01314992227945014</v>
       </c>
       <c r="BR3">
-        <v>0.005545907479461775</v>
+        <v>0.01426028977738931</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.006634837664965398</v>
       </c>
       <c r="BT3">
-        <v>0.003912301759610604</v>
+        <v>0.0130053763526089</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1452,100 +1452,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.267697872423024</v>
+        <v>0.2187898900415919</v>
       </c>
       <c r="AP4">
-        <v>0.1023049648399309</v>
+        <v>0.08979235010834903</v>
       </c>
       <c r="AQ4">
-        <v>0.1601018901557684</v>
+        <v>0.1348708319513669</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>2.986629568419002E-05</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.006730610980907335</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.002141690750597925</v>
       </c>
       <c r="AU4">
-        <v>0.128137245754266</v>
+        <v>0.1099401347836959</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>2.723214683545077E-05</v>
       </c>
       <c r="AW4">
-        <v>0.05127473673054472</v>
+        <v>0.04999152681708515</v>
       </c>
       <c r="AX4">
-        <v>0.008729979241712029</v>
+        <v>0.01680891256043343</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>0.005393173761829378</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>0.0006852313833125192</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>0.006795247456898443</v>
       </c>
       <c r="BB4">
-        <v>0.03095782112213192</v>
+        <v>0.03414542935852361</v>
       </c>
       <c r="BC4">
-        <v>0.02436404045456285</v>
+        <v>0.02900263637298731</v>
       </c>
       <c r="BD4">
-        <v>0.001520954460595205</v>
+        <v>0.01118626237747652</v>
       </c>
       <c r="BE4">
-        <v>0.04463861434888496</v>
+        <v>0.04481570958018236</v>
       </c>
       <c r="BF4">
-        <v>0.001926187203758723</v>
+        <v>0.01150232204250315</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>0.003518836462377451</v>
       </c>
       <c r="BH4">
-        <v>0.1188656204284269</v>
+        <v>0.1027087675159361</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>7.691097210790612E-05</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>0.009212779818822792</v>
       </c>
       <c r="BK4">
-        <v>0.0007576779395359327</v>
+        <v>0.0105909478930511</v>
       </c>
       <c r="BL4">
-        <v>0</v>
+        <v>0.004823200823316398</v>
       </c>
       <c r="BM4">
-        <v>0.01926958647855174</v>
+        <v>0.02502923727255492</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>0.0002459742685713435</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>1.913403372643291E-05</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>0.009898460774275527</v>
       </c>
       <c r="BQ4">
-        <v>0.008464656702729702</v>
+        <v>0.01660197530225404</v>
       </c>
       <c r="BR4">
-        <v>0.01524170953016677</v>
+        <v>0.02188771067937595</v>
       </c>
       <c r="BS4">
-        <v>0.01574644218540905</v>
+        <v>0.02228137490477519</v>
       </c>
       <c r="BT4">
-        <v>0</v>
+        <v>0.0004556305085945014</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -1670,100 +1670,100 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.1699381866687051</v>
+        <v>0.1410612498598294</v>
       </c>
       <c r="AP5">
-        <v>0.2698911913434624</v>
+        <v>0.2181479010517564</v>
       </c>
       <c r="AQ5">
-        <v>0.1672783512747339</v>
+        <v>0.139009907792523</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.0009527868245702934</v>
       </c>
       <c r="AS5">
-        <v>0.01302205892713113</v>
+        <v>0.02004298887845229</v>
       </c>
       <c r="AT5">
-        <v>0.0007642138200509482</v>
+        <v>0.01058938382466851</v>
       </c>
       <c r="AU5">
-        <v>0.07934915585516636</v>
+        <v>0.07119636642925078</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.0007846984720188629</v>
       </c>
       <c r="AW5">
-        <v>0.06564136392180488</v>
+        <v>0.06062452040204066</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>0.001648425688132459</v>
       </c>
       <c r="AY5">
-        <v>0.01269971281314523</v>
+        <v>0.01979438622230643</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>0.0004095671879848328</v>
       </c>
       <c r="BA5">
-        <v>0.00179806439692147</v>
+        <v>0.01138671932311719</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.001017114295013625</v>
       </c>
       <c r="BC5">
-        <v>0.005334664029461026</v>
+        <v>0.01411424735657834</v>
       </c>
       <c r="BD5">
-        <v>0.02312006976184358</v>
+        <v>0.02783086720667993</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>0.003574487511241921</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>0.006432554633495169</v>
       </c>
       <c r="BG5">
-        <v>0.01254481883694029</v>
+        <v>0.01967492750313842</v>
       </c>
       <c r="BH5">
-        <v>0.08888776992661573</v>
+        <v>0.07855282177717011</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>0.007451617174862648</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.006053459778593355</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>0.00454204377325507</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>0.008157051898241114</v>
       </c>
       <c r="BM5">
-        <v>0.007067393818963948</v>
+        <v>0.01545057873879046</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.0002816753304646522</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.0002995345903038083</v>
       </c>
       <c r="BP5">
-        <v>0.005180603869660278</v>
+        <v>0.01399543170076312</v>
       </c>
       <c r="BQ5">
-        <v>0.0360628471244822</v>
+        <v>0.03781271184711886</v>
       </c>
       <c r="BR5">
-        <v>0.03968023859483758</v>
+        <v>0.04060254888510798</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.007166029367500628</v>
       </c>
       <c r="BT5">
-        <v>0.001739295016074048</v>
+        <v>0.01134139467502989</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -1888,100 +1888,100 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.1388051851009481</v>
+        <v>0.1188820355649674</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.005786308126619777</v>
       </c>
       <c r="AQ6">
-        <v>0.2645271122890964</v>
+        <v>0.2175012574437525</v>
       </c>
       <c r="AR6">
-        <v>0.01618865391889772</v>
+        <v>0.02269875898702528</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.002051816793944122</v>
       </c>
       <c r="AT6">
-        <v>0.02334667192637406</v>
+        <v>0.02831367582675214</v>
       </c>
       <c r="AU6">
-        <v>0.116530488806513</v>
+        <v>0.1014092425106901</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.007779097701871288</v>
       </c>
       <c r="AW6">
-        <v>1.872226687216292E-05</v>
+        <v>0.01001468618428014</v>
       </c>
       <c r="AX6">
-        <v>0.07705916446160589</v>
+        <v>0.07044701197158623</v>
       </c>
       <c r="AY6">
-        <v>0.005636421467963808</v>
+        <v>0.01442134090515175</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>0.002151972213359103</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>0.0001187283415686271</v>
       </c>
       <c r="BB6">
-        <v>0.0497064323564967</v>
+        <v>0.04899088878928888</v>
       </c>
       <c r="BC6">
-        <v>0.009314272983460343</v>
+        <v>0.01730633370438853</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>0.002759822116112977</v>
       </c>
       <c r="BE6">
-        <v>0.06691646125223237</v>
+        <v>0.06249083821075188</v>
       </c>
       <c r="BF6">
-        <v>0</v>
+        <v>0.003933799594103377</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>0.003164164163584994</v>
       </c>
       <c r="BH6">
-        <v>0.101327605786227</v>
+        <v>0.08948374528592168</v>
       </c>
       <c r="BI6">
-        <v>0.009994507555092324</v>
+        <v>0.01783992562148506</v>
       </c>
       <c r="BJ6">
-        <v>0.02604360898944434</v>
+        <v>0.03042921637377231</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>0.00084904715619928</v>
       </c>
       <c r="BL6">
-        <v>0</v>
+        <v>4.674502104369253E-05</v>
       </c>
       <c r="BM6">
-        <v>0.02110114137775293</v>
+        <v>0.02655222911365296</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>0.001611948771941206</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>0.0006340497657380433</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.00403769129578899</v>
       </c>
       <c r="BQ6">
-        <v>0.01870500537803805</v>
+        <v>0.02467264396018976</v>
       </c>
       <c r="BR6">
-        <v>0.0238115176163373</v>
+        <v>0.0286783116644551</v>
       </c>
       <c r="BS6">
-        <v>0.03096702646664768</v>
+        <v>0.03429126026258073</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>0.0006514065574321442</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -1995,34 +1995,34 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1906871286873074</v>
+        <v>0.1860810802705286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3598867665885875</v>
+        <v>0.3496732033206109</v>
       </c>
       <c r="G7">
-        <v>0.09975791646729434</v>
+        <v>0.09816539050396743</v>
       </c>
       <c r="H7">
-        <v>0.01322631763636047</v>
+        <v>0.01450157101086798</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01383599522297744</v>
+        <v>0.01509104302161137</v>
       </c>
       <c r="K7">
-        <v>0.0385004653670373</v>
+        <v>0.03893809780742775</v>
       </c>
       <c r="L7">
-        <v>0.02059604254204083</v>
+        <v>0.02162705282968099</v>
       </c>
       <c r="M7">
-        <v>0.05404574252233332</v>
+        <v>0.05396818253326261</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.005209913289202385</v>
+        <v>0.006750841620154678</v>
       </c>
       <c r="Q7">
-        <v>0.01799488907698565</v>
+        <v>0.01911210526238342</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.0005831596258784403</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.05679631127006969</v>
+        <v>0.05662759354985082</v>
       </c>
       <c r="X7">
-        <v>0.02441646307294679</v>
+        <v>0.02532085923108524</v>
       </c>
       <c r="Y7">
-        <v>0.0007833886216507275</v>
+        <v>0.002471018228801803</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.005320043808353121</v>
+        <v>0.0068573222584347</v>
       </c>
       <c r="AC7">
-        <v>0.005351549153674654</v>
+        <v>0.006887783472137666</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.02079223542560462</v>
+        <v>0.02181674360412724</v>
       </c>
       <c r="AG7">
-        <v>0.01776220397021414</v>
+        <v>0.01888713166852091</v>
       </c>
       <c r="AH7">
-        <v>0.03895466820162782</v>
+        <v>0.03937724771890322</v>
       </c>
       <c r="AI7">
-        <v>0.0160819590757318</v>
+        <v>0.0172625724617642</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2213,52 +2213,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2721481215354075</v>
+        <v>0.252462586395978</v>
       </c>
       <c r="E8">
-        <v>0.04262602956250625</v>
+        <v>0.04301719803608687</v>
       </c>
       <c r="F8">
-        <v>0.2246621673978179</v>
+        <v>0.2091303127115708</v>
       </c>
       <c r="G8">
-        <v>0.07492783469659761</v>
+        <v>0.07249350710455799</v>
       </c>
       <c r="H8">
-        <v>0.02531771539645901</v>
+        <v>0.02722287274390204</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03610822338042669</v>
+        <v>0.0370695158965335</v>
       </c>
       <c r="K8">
-        <v>0.01822779818446263</v>
+        <v>0.02075312313879046</v>
       </c>
       <c r="L8">
-        <v>0.07702727576985852</v>
+        <v>0.07440930635136754</v>
       </c>
       <c r="M8">
-        <v>0.008588540239552602</v>
+        <v>0.01195702814671794</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.002354279841530514</v>
+        <v>0.006268089539646562</v>
       </c>
       <c r="P8">
-        <v>0.02833184702694846</v>
+        <v>0.02997335294600053</v>
       </c>
       <c r="Q8">
-        <v>0.006195750296859376</v>
+        <v>0.00977353977527963</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.0002351407420100123</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2267,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.002598146884753448</v>
       </c>
       <c r="W8">
-        <v>0.06582216646901289</v>
+        <v>0.06418432779284287</v>
       </c>
       <c r="X8">
-        <v>0.003334513735071796</v>
+        <v>0.007162580639616676</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.002243627806847369</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.01082347518372218</v>
+        <v>0.01399646937573895</v>
       </c>
       <c r="AC8">
-        <v>0.01550336931859143</v>
+        <v>0.01826700488774794</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2297,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.02333562559419173</v>
+        <v>0.02541415984471382</v>
       </c>
       <c r="AG8">
-        <v>0.01102413184420903</v>
+        <v>0.01417957424299343</v>
       </c>
       <c r="AH8">
-        <v>0.04348707722625084</v>
+        <v>0.04380292833672676</v>
       </c>
       <c r="AI8">
-        <v>0.01015405730052286</v>
+        <v>0.01338560665957702</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2542,100 +2542,100 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.1974303193542334</v>
+        <v>0.1611387647128754</v>
       </c>
       <c r="AP9">
-        <v>0.0161853806390412</v>
+        <v>0.02239038889362929</v>
       </c>
       <c r="AQ9">
-        <v>0.18957188703206</v>
+        <v>0.1551229017104862</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.005178771286365396</v>
       </c>
       <c r="AS9">
-        <v>0.01671989381633897</v>
+        <v>0.02279957458306026</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.0009437736230940476</v>
       </c>
       <c r="AU9">
-        <v>0.09172249127320271</v>
+        <v>0.08021628730968317</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>0.0001673592557443847</v>
       </c>
       <c r="AW9">
-        <v>0.04030722523388735</v>
+        <v>0.04085637631939913</v>
       </c>
       <c r="AX9">
-        <v>0.09523858200593668</v>
+        <v>0.08290795904329527</v>
       </c>
       <c r="AY9">
-        <v>0.006399324870740749</v>
+        <v>0.01489887297515228</v>
       </c>
       <c r="AZ9">
-        <v>0.006510839058809424</v>
+        <v>0.01498424039332689</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>2.112841477587528E-05</v>
       </c>
       <c r="BB9">
-        <v>0.1014933186751862</v>
+        <v>0.08769614546211255</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>0.009640964702634289</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>0.008634060763536688</v>
       </c>
       <c r="BE9">
-        <v>0.07540139446835199</v>
+        <v>0.06772200366615372</v>
       </c>
       <c r="BF9">
-        <v>0</v>
+        <v>0.0007040055999410029</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>0.0007537845848843024</v>
       </c>
       <c r="BH9">
-        <v>0.1272441257256304</v>
+        <v>0.1074091519582462</v>
       </c>
       <c r="BI9">
-        <v>0.008301172005185493</v>
+        <v>0.01635479336019185</v>
       </c>
       <c r="BJ9">
-        <v>0.01284710008751031</v>
+        <v>0.01983483612709533</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>0.00675342864905319</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>0.003599023019577584</v>
       </c>
       <c r="BM9">
-        <v>0.0001042856304069097</v>
+        <v>0.01007983374290513</v>
       </c>
       <c r="BN9">
-        <v>0.0001158053197568848</v>
+        <v>0.01008865240674525</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>1.007982927504423E-05</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>0.0009081471683665025</v>
       </c>
       <c r="BQ9">
-        <v>0.003816305921968818</v>
+        <v>0.01292149536453875</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>0.007155815817948994</v>
       </c>
       <c r="BS9">
-        <v>0.003209024294606301</v>
+        <v>0.01245660326846857</v>
       </c>
       <c r="BT9">
-        <v>0.007381524587146209</v>
+        <v>0.01565077598743738</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -2649,34 +2649,34 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1578155875993556</v>
+        <v>0.1468410307373983</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3421960078793251</v>
+        <v>0.3118089447230479</v>
       </c>
       <c r="G10">
-        <v>0.09197604146098774</v>
+        <v>0.08793340612239785</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.002674144035579659</v>
+        <v>0.008033665624678355</v>
       </c>
       <c r="J10">
-        <v>0.04236490713748853</v>
+        <v>0.04354558377454613</v>
       </c>
       <c r="K10">
-        <v>0.03504318888240502</v>
+        <v>0.03699473317176662</v>
       </c>
       <c r="L10">
-        <v>0.001043348836386125</v>
+        <v>0.006574568819604006</v>
       </c>
       <c r="M10">
-        <v>0.1183479171130744</v>
+        <v>0.1115287168804909</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.03935890578788991</v>
+        <v>0.0408560695011306</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.005456398351982032</v>
       </c>
       <c r="T10">
-        <v>0.02166822472468463</v>
+        <v>0.02502795311246515</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2706,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.07636470423438071</v>
+        <v>0.07396570969948403</v>
       </c>
       <c r="X10">
-        <v>0.03568562151813429</v>
+        <v>0.03756952723955124</v>
       </c>
       <c r="Y10">
-        <v>0.0002714595049201076</v>
+        <v>0.005883947913943992</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.001271020952821994</v>
+        <v>0.006778270460288483</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2733,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.003930502460742998</v>
       </c>
       <c r="AG10">
-        <v>0.00663628325902168</v>
+        <v>0.01157865072461176</v>
       </c>
       <c r="AH10">
-        <v>0.01709282214623313</v>
+        <v>0.02093427213557183</v>
       </c>
       <c r="AI10">
-        <v>0.01018981492731167</v>
+        <v>0.01475804854629809</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2978,100 +2978,100 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.2263349956905813</v>
+        <v>0.1849880283976083</v>
       </c>
       <c r="AP11">
-        <v>0.1215933939751569</v>
+        <v>0.1040083888174955</v>
       </c>
       <c r="AQ11">
-        <v>0.1732909552328653</v>
+        <v>0.143977701958174</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.005752759634836062</v>
       </c>
       <c r="AS11">
-        <v>0.01266716358182217</v>
+        <v>0.01979345670257429</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.0003168601502928316</v>
       </c>
       <c r="AU11">
-        <v>0.08406549254118471</v>
+        <v>0.07499416827332422</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.0001162504183760285</v>
       </c>
       <c r="AW11">
-        <v>0.108471053043272</v>
+        <v>0.09386301752559439</v>
       </c>
       <c r="AX11">
-        <v>0.02562783838442973</v>
+        <v>0.02981383787911735</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>0.002331936520834579</v>
       </c>
       <c r="AZ11">
-        <v>0.009286935225538953</v>
+        <v>0.01718007606386689</v>
       </c>
       <c r="BA11">
-        <v>0.01509361177552494</v>
+        <v>0.0216694343176553</v>
       </c>
       <c r="BB11">
-        <v>0.03113365555845957</v>
+        <v>0.03407059052605797</v>
       </c>
       <c r="BC11">
-        <v>0.04474351676104295</v>
+        <v>0.04459288192575368</v>
       </c>
       <c r="BD11">
-        <v>0</v>
+        <v>0.002861928628099979</v>
       </c>
       <c r="BE11">
-        <v>0.01522711844196584</v>
+        <v>0.02177265330183028</v>
       </c>
       <c r="BF11">
-        <v>0.006345592613250864</v>
+        <v>0.01490601436609126</v>
       </c>
       <c r="BG11">
-        <v>0.005624607239315976</v>
+        <v>0.01434859367777289</v>
       </c>
       <c r="BH11">
-        <v>0.1109039543821038</v>
+        <v>0.09574398430790357</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>0.0003451059883465728</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>0.006289854480027532</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>0.009449256828369307</v>
       </c>
       <c r="BL11">
-        <v>0</v>
+        <v>0.0005898250032969319</v>
       </c>
       <c r="BM11">
-        <v>0</v>
+        <v>0.006792142575216231</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>0.003839983468559599</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>0.0009437647410718933</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>0.0002150405973245776</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>0.008625555224853138</v>
       </c>
       <c r="BR11">
-        <v>0.0001221350757200499</v>
+        <v>0.01009442718318143</v>
       </c>
       <c r="BS11">
-        <v>0.009467980477764672</v>
+        <v>0.01732004890209751</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>0.008392431614395802</v>
       </c>
     </row>
   </sheetData>
@@ -3427,97 +3427,97 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0970281470890567</v>
+        <v>0.08516854811437806</v>
       </c>
       <c r="AP2">
-        <v>0.0970281470890567</v>
+        <v>0.09280718360894184</v>
       </c>
       <c r="AQ2">
-        <v>0.4441305890515213</v>
+        <v>0.3717104595349059</v>
       </c>
       <c r="AR2">
-        <v>0.4818713493538486</v>
+        <v>0.4109485542710123</v>
       </c>
       <c r="AS2">
-        <v>0.4818713493538486</v>
+        <v>0.4125438104047479</v>
       </c>
       <c r="AT2">
-        <v>0.5007696323454374</v>
+        <v>0.4371844743455787</v>
       </c>
       <c r="AU2">
-        <v>0.5518378066273105</v>
+        <v>0.486747432423064</v>
       </c>
       <c r="AV2">
-        <v>0.5532872012826286</v>
+        <v>0.4978702910486647</v>
       </c>
       <c r="AW2">
-        <v>0.5532872012826286</v>
+        <v>0.4980826825153464</v>
       </c>
       <c r="AX2">
-        <v>0.6603271051384012</v>
+        <v>0.5910074255361116</v>
       </c>
       <c r="AY2">
-        <v>0.6603271051384012</v>
+        <v>0.5998449334429264</v>
       </c>
       <c r="AZ2">
-        <v>0.6603271051384012</v>
+        <v>0.604479556578091</v>
       </c>
       <c r="BA2">
-        <v>0.6603271051384012</v>
+        <v>0.6104496120882924</v>
       </c>
       <c r="BB2">
-        <v>0.7392431865904223</v>
+        <v>0.6815865856736972</v>
       </c>
       <c r="BC2">
-        <v>0.7392431865904223</v>
+        <v>0.6869482097472676</v>
       </c>
       <c r="BD2">
-        <v>0.7509769285266414</v>
+        <v>0.7060384415176922</v>
       </c>
       <c r="BE2">
-        <v>0.8392712461502708</v>
+        <v>0.784440816103144</v>
       </c>
       <c r="BF2">
-        <v>0.8392712461502708</v>
+        <v>0.7881983525382843</v>
       </c>
       <c r="BG2">
-        <v>0.8392712461502708</v>
+        <v>0.7957389019199218</v>
       </c>
       <c r="BH2">
-        <v>0.8993672244025603</v>
+        <v>0.8522957781281384</v>
       </c>
       <c r="BI2">
-        <v>0.9402073162868539</v>
+        <v>0.8939349519544969</v>
       </c>
       <c r="BJ2">
-        <v>0.9498864676067073</v>
+        <v>0.9114334745329498</v>
       </c>
       <c r="BK2">
-        <v>0.9498864676067073</v>
+        <v>0.912398812150106</v>
       </c>
       <c r="BL2">
-        <v>0.9498864676067073</v>
+        <v>0.9128511262720055</v>
       </c>
       <c r="BM2">
-        <v>0.9587345068170605</v>
+        <v>0.9297057790820905</v>
       </c>
       <c r="BN2">
-        <v>0.9587345068170605</v>
+        <v>0.9349160923269132</v>
       </c>
       <c r="BO2">
-        <v>0.9587345068170605</v>
+        <v>0.9353724790854726</v>
       </c>
       <c r="BP2">
-        <v>0.9587345068170605</v>
+        <v>0.9353747997865137</v>
       </c>
       <c r="BQ2">
-        <v>0.9626956853036073</v>
+        <v>0.9484435591577747</v>
       </c>
       <c r="BR2">
-        <v>0.982573382172039</v>
+        <v>0.9738429835339437</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999999</v>
+        <v>0.9973435356929955</v>
       </c>
       <c r="BT2">
         <v>0.9999999999999999</v>
@@ -3645,100 +3645,100 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.09854416000318851</v>
+        <v>0.0857002670956465</v>
       </c>
       <c r="AP3">
-        <v>0.3316207055209813</v>
+        <v>0.2747464606890226</v>
       </c>
       <c r="AQ3">
-        <v>0.3831188251758245</v>
+        <v>0.3243066072534569</v>
       </c>
       <c r="AR3">
-        <v>0.3831188251758245</v>
+        <v>0.324505562026496</v>
       </c>
       <c r="AS3">
-        <v>0.403826513001363</v>
+        <v>0.3504129227394577</v>
       </c>
       <c r="AT3">
-        <v>0.4376093262739643</v>
+        <v>0.3863644148207289</v>
       </c>
       <c r="AU3">
-        <v>0.4624742417690763</v>
+        <v>0.415465300598534</v>
       </c>
       <c r="AV3">
-        <v>0.4624742417690763</v>
+        <v>0.4155166219324675</v>
       </c>
       <c r="AW3">
-        <v>0.6337462091002749</v>
+        <v>0.5570853894022909</v>
       </c>
       <c r="AX3">
-        <v>0.6337462091002749</v>
+        <v>0.5573646598484951</v>
       </c>
       <c r="AY3">
-        <v>0.6412330712493927</v>
+        <v>0.5731159642827525</v>
       </c>
       <c r="AZ3">
-        <v>0.6691623042055578</v>
+        <v>0.6045708165488819</v>
       </c>
       <c r="BA3">
-        <v>0.7245685940830732</v>
+        <v>0.6571331656761261</v>
       </c>
       <c r="BB3">
-        <v>0.7245685940830732</v>
+        <v>0.6598101049860569</v>
       </c>
       <c r="BC3">
-        <v>0.7996731152597339</v>
+        <v>0.7275043642194797</v>
       </c>
       <c r="BD3">
-        <v>0.8514888455403856</v>
+        <v>0.777308494894239</v>
       </c>
       <c r="BE3">
-        <v>0.8514888455403856</v>
+        <v>0.7838186760611987</v>
       </c>
       <c r="BF3">
-        <v>0.8846582759861962</v>
+        <v>0.81929897589913</v>
       </c>
       <c r="BG3">
-        <v>0.9049467913242555</v>
+        <v>0.8448843340777935</v>
       </c>
       <c r="BH3">
-        <v>0.9861301770138191</v>
+        <v>0.9172482933446846</v>
       </c>
       <c r="BI3">
-        <v>0.9864413237875216</v>
+        <v>0.9274873120128072</v>
       </c>
       <c r="BJ3">
-        <v>0.9864413237875216</v>
+        <v>0.9282535736133938</v>
       </c>
       <c r="BK3">
-        <v>0.9864413237875216</v>
+        <v>0.9322750434163072</v>
       </c>
       <c r="BL3">
-        <v>0.9864413237875216</v>
+        <v>0.9422694031948966</v>
       </c>
       <c r="BM3">
-        <v>0.9864413237875216</v>
+        <v>0.9491870602278339</v>
       </c>
       <c r="BN3">
-        <v>0.9864413237875216</v>
+        <v>0.9497598401692795</v>
       </c>
       <c r="BO3">
-        <v>0.9864413237875216</v>
+        <v>0.9501039779939739</v>
       </c>
       <c r="BP3">
-        <v>0.9864413237875216</v>
+        <v>0.9529495739255861</v>
       </c>
       <c r="BQ3">
-        <v>0.990541790760928</v>
+        <v>0.9660994962050362</v>
       </c>
       <c r="BR3">
-        <v>0.9960876982403898</v>
+        <v>0.9803597859824256</v>
       </c>
       <c r="BS3">
-        <v>0.9960876982403898</v>
+        <v>0.986994623647391</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -3863,100 +3863,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.267697872423024</v>
+        <v>0.2187898900415919</v>
       </c>
       <c r="AP4">
-        <v>0.3700028372629549</v>
+        <v>0.3085822401499409</v>
       </c>
       <c r="AQ4">
-        <v>0.5301047274187233</v>
+        <v>0.4434530721013078</v>
       </c>
       <c r="AR4">
-        <v>0.5301047274187233</v>
+        <v>0.443482938396992</v>
       </c>
       <c r="AS4">
-        <v>0.5301047274187233</v>
+        <v>0.4502135493778993</v>
       </c>
       <c r="AT4">
-        <v>0.5301047274187233</v>
+        <v>0.4523552401284973</v>
       </c>
       <c r="AU4">
-        <v>0.6582419731729894</v>
+        <v>0.5622953749121932</v>
       </c>
       <c r="AV4">
-        <v>0.6582419731729894</v>
+        <v>0.5623226070590286</v>
       </c>
       <c r="AW4">
-        <v>0.7095167099035341</v>
+        <v>0.6123141338761138</v>
       </c>
       <c r="AX4">
-        <v>0.7182466891452461</v>
+        <v>0.6291230464365472</v>
       </c>
       <c r="AY4">
-        <v>0.7182466891452461</v>
+        <v>0.6345162201983765</v>
       </c>
       <c r="AZ4">
-        <v>0.7182466891452461</v>
+        <v>0.6352014515816891</v>
       </c>
       <c r="BA4">
-        <v>0.7182466891452461</v>
+        <v>0.6419966990385875</v>
       </c>
       <c r="BB4">
-        <v>0.7492045102673781</v>
+        <v>0.6761421283971111</v>
       </c>
       <c r="BC4">
-        <v>0.773568550721941</v>
+        <v>0.7051447647700984</v>
       </c>
       <c r="BD4">
-        <v>0.7750895051825362</v>
+        <v>0.7163310271475749</v>
       </c>
       <c r="BE4">
-        <v>0.8197281195314211</v>
+        <v>0.7611467367277572</v>
       </c>
       <c r="BF4">
-        <v>0.8216543067351798</v>
+        <v>0.7726490587702604</v>
       </c>
       <c r="BG4">
-        <v>0.8216543067351798</v>
+        <v>0.7761678952326379</v>
       </c>
       <c r="BH4">
-        <v>0.9405199271636067</v>
+        <v>0.8788766627485739</v>
       </c>
       <c r="BI4">
-        <v>0.9405199271636067</v>
+        <v>0.8789535737206818</v>
       </c>
       <c r="BJ4">
-        <v>0.9405199271636067</v>
+        <v>0.8881663535395046</v>
       </c>
       <c r="BK4">
-        <v>0.9412776051031426</v>
+        <v>0.8987573014325557</v>
       </c>
       <c r="BL4">
-        <v>0.9412776051031426</v>
+        <v>0.9035805022558722</v>
       </c>
       <c r="BM4">
-        <v>0.9605471915816943</v>
+        <v>0.9286097395284271</v>
       </c>
       <c r="BN4">
-        <v>0.9605471915816943</v>
+        <v>0.9288557137969984</v>
       </c>
       <c r="BO4">
-        <v>0.9605471915816943</v>
+        <v>0.9288748478307248</v>
       </c>
       <c r="BP4">
-        <v>0.9605471915816943</v>
+        <v>0.9387733086050003</v>
       </c>
       <c r="BQ4">
-        <v>0.969011848284424</v>
+        <v>0.9553752839072543</v>
       </c>
       <c r="BR4">
-        <v>0.9842535578145908</v>
+        <v>0.9772629945866302</v>
       </c>
       <c r="BS4">
-        <v>0.9999999999999998</v>
+        <v>0.9995443694914055</v>
       </c>
       <c r="BT4">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -4081,97 +4081,97 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.1699381866687051</v>
+        <v>0.1410612498598294</v>
       </c>
       <c r="AP5">
-        <v>0.4398293780121675</v>
+        <v>0.3592091509115858</v>
       </c>
       <c r="AQ5">
-        <v>0.6071077292869015</v>
+        <v>0.4982190587041088</v>
       </c>
       <c r="AR5">
-        <v>0.6071077292869015</v>
+        <v>0.499171845528679</v>
       </c>
       <c r="AS5">
-        <v>0.6201297882140326</v>
+        <v>0.5192148344071313</v>
       </c>
       <c r="AT5">
-        <v>0.6208940020340836</v>
+        <v>0.5298042182317999</v>
       </c>
       <c r="AU5">
-        <v>0.70024315788925</v>
+        <v>0.6010005846610507</v>
       </c>
       <c r="AV5">
-        <v>0.70024315788925</v>
+        <v>0.6017852831330696</v>
       </c>
       <c r="AW5">
-        <v>0.7658845218110548</v>
+        <v>0.6624098035351103</v>
       </c>
       <c r="AX5">
-        <v>0.7658845218110548</v>
+        <v>0.6640582292232428</v>
       </c>
       <c r="AY5">
-        <v>0.7785842346242</v>
+        <v>0.6838526154455492</v>
       </c>
       <c r="AZ5">
-        <v>0.7785842346242</v>
+        <v>0.684262182633534</v>
       </c>
       <c r="BA5">
-        <v>0.7803822990211214</v>
+        <v>0.6956489019566512</v>
       </c>
       <c r="BB5">
-        <v>0.7803822990211214</v>
+        <v>0.6966660162516648</v>
       </c>
       <c r="BC5">
-        <v>0.7857169630505825</v>
+        <v>0.7107802636082431</v>
       </c>
       <c r="BD5">
-        <v>0.808837032812426</v>
+        <v>0.738611130814923</v>
       </c>
       <c r="BE5">
-        <v>0.808837032812426</v>
+        <v>0.7421856183261649</v>
       </c>
       <c r="BF5">
-        <v>0.808837032812426</v>
+        <v>0.74861817295966</v>
       </c>
       <c r="BG5">
-        <v>0.8213818516493663</v>
+        <v>0.7682931004627984</v>
       </c>
       <c r="BH5">
-        <v>0.910269621575982</v>
+        <v>0.8468459222399686</v>
       </c>
       <c r="BI5">
-        <v>0.910269621575982</v>
+        <v>0.8542975394148312</v>
       </c>
       <c r="BJ5">
-        <v>0.910269621575982</v>
+        <v>0.8603509991934246</v>
       </c>
       <c r="BK5">
-        <v>0.910269621575982</v>
+        <v>0.8648930429666797</v>
       </c>
       <c r="BL5">
-        <v>0.910269621575982</v>
+        <v>0.8730500948649208</v>
       </c>
       <c r="BM5">
-        <v>0.9173370153949459</v>
+        <v>0.8885006736037112</v>
       </c>
       <c r="BN5">
-        <v>0.9173370153949459</v>
+        <v>0.8887823489341758</v>
       </c>
       <c r="BO5">
-        <v>0.9173370153949459</v>
+        <v>0.8890818835244797</v>
       </c>
       <c r="BP5">
-        <v>0.9225176192646062</v>
+        <v>0.9030773152252428</v>
       </c>
       <c r="BQ5">
-        <v>0.9585804663890883</v>
+        <v>0.9408900270723617</v>
       </c>
       <c r="BR5">
-        <v>0.9982607049839259</v>
+        <v>0.9814925759574696</v>
       </c>
       <c r="BS5">
-        <v>0.9982607049839259</v>
+        <v>0.9886586053249703</v>
       </c>
       <c r="BT5">
         <v>1</v>
@@ -4299,97 +4299,97 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.1388051851009481</v>
+        <v>0.1188820355649674</v>
       </c>
       <c r="AP6">
-        <v>0.1388051851009481</v>
+        <v>0.1246683436915872</v>
       </c>
       <c r="AQ6">
-        <v>0.4033322973900445</v>
+        <v>0.3421696011353397</v>
       </c>
       <c r="AR6">
-        <v>0.4195209513089422</v>
+        <v>0.364868360122365</v>
       </c>
       <c r="AS6">
-        <v>0.4195209513089422</v>
+        <v>0.3669201769163091</v>
       </c>
       <c r="AT6">
-        <v>0.4428676232353163</v>
+        <v>0.3952338527430612</v>
       </c>
       <c r="AU6">
-        <v>0.5593981120418293</v>
+        <v>0.4966430952537513</v>
       </c>
       <c r="AV6">
-        <v>0.5593981120418293</v>
+        <v>0.5044221929556226</v>
       </c>
       <c r="AW6">
-        <v>0.5594168343087015</v>
+        <v>0.5144368791399028</v>
       </c>
       <c r="AX6">
-        <v>0.6364759987703074</v>
+        <v>0.584883891111489</v>
       </c>
       <c r="AY6">
-        <v>0.6421124202382712</v>
+        <v>0.5993052320166408</v>
       </c>
       <c r="AZ6">
-        <v>0.6421124202382712</v>
+        <v>0.6014572042299998</v>
       </c>
       <c r="BA6">
-        <v>0.6421124202382712</v>
+        <v>0.6015759325715685</v>
       </c>
       <c r="BB6">
-        <v>0.6918188525947679</v>
+        <v>0.6505668213608574</v>
       </c>
       <c r="BC6">
-        <v>0.7011331255782283</v>
+        <v>0.6678731550652459</v>
       </c>
       <c r="BD6">
-        <v>0.7011331255782283</v>
+        <v>0.6706329771813589</v>
       </c>
       <c r="BE6">
-        <v>0.7680495868304607</v>
+        <v>0.7331238153921108</v>
       </c>
       <c r="BF6">
-        <v>0.7680495868304607</v>
+        <v>0.7370576149862141</v>
       </c>
       <c r="BG6">
-        <v>0.7680495868304607</v>
+        <v>0.7402217791497991</v>
       </c>
       <c r="BH6">
-        <v>0.8693771926166876</v>
+        <v>0.8297055244357208</v>
       </c>
       <c r="BI6">
-        <v>0.8793717001717799</v>
+        <v>0.8475454500572058</v>
       </c>
       <c r="BJ6">
-        <v>0.9054153091612243</v>
+        <v>0.8779746664309781</v>
       </c>
       <c r="BK6">
-        <v>0.9054153091612243</v>
+        <v>0.8788237135871774</v>
       </c>
       <c r="BL6">
-        <v>0.9054153091612243</v>
+        <v>0.8788704586082211</v>
       </c>
       <c r="BM6">
-        <v>0.9265164505389771</v>
+        <v>0.9054226877218741</v>
       </c>
       <c r="BN6">
-        <v>0.9265164505389771</v>
+        <v>0.9070346364938152</v>
       </c>
       <c r="BO6">
-        <v>0.9265164505389771</v>
+        <v>0.9076686862595532</v>
       </c>
       <c r="BP6">
-        <v>0.9265164505389771</v>
+        <v>0.9117063775553422</v>
       </c>
       <c r="BQ6">
-        <v>0.9452214559170152</v>
+        <v>0.936379021515532</v>
       </c>
       <c r="BR6">
-        <v>0.9690329735333525</v>
+        <v>0.9650573331799871</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9993485934425679</v>
       </c>
       <c r="BT6">
         <v>1</v>
@@ -4406,97 +4406,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1906871286873074</v>
+        <v>0.1860810802705286</v>
       </c>
       <c r="E7">
-        <v>0.1906871286873074</v>
+        <v>0.1860810802705286</v>
       </c>
       <c r="F7">
-        <v>0.550573895275895</v>
+        <v>0.5357542835911395</v>
       </c>
       <c r="G7">
-        <v>0.6503318117431893</v>
+        <v>0.633919674095107</v>
       </c>
       <c r="H7">
-        <v>0.6635581293795498</v>
+        <v>0.648421245105975</v>
       </c>
       <c r="I7">
-        <v>0.6635581293795498</v>
+        <v>0.648421245105975</v>
       </c>
       <c r="J7">
-        <v>0.6773941246025272</v>
+        <v>0.6635122881275863</v>
       </c>
       <c r="K7">
-        <v>0.7158945899695646</v>
+        <v>0.7024503859350141</v>
       </c>
       <c r="L7">
-        <v>0.7364906325116054</v>
+        <v>0.7240774387646951</v>
       </c>
       <c r="M7">
-        <v>0.7905363750339387</v>
+        <v>0.7780456212979577</v>
       </c>
       <c r="N7">
-        <v>0.7905363750339387</v>
+        <v>0.7780456212979577</v>
       </c>
       <c r="O7">
-        <v>0.7905363750339387</v>
+        <v>0.7780456212979577</v>
       </c>
       <c r="P7">
-        <v>0.7957462883231411</v>
+        <v>0.7847964629181124</v>
       </c>
       <c r="Q7">
-        <v>0.8137411774001267</v>
+        <v>0.8039085681804958</v>
       </c>
       <c r="R7">
-        <v>0.8137411774001267</v>
+        <v>0.8039085681804958</v>
       </c>
       <c r="S7">
-        <v>0.8137411774001267</v>
+        <v>0.8039085681804958</v>
       </c>
       <c r="T7">
-        <v>0.8137411774001267</v>
+        <v>0.8044917278063742</v>
       </c>
       <c r="U7">
-        <v>0.8137411774001267</v>
+        <v>0.8044917278063742</v>
       </c>
       <c r="V7">
-        <v>0.8137411774001267</v>
+        <v>0.8044917278063742</v>
       </c>
       <c r="W7">
-        <v>0.8705374886701964</v>
+        <v>0.861119321356225</v>
       </c>
       <c r="X7">
-        <v>0.8949539517431432</v>
+        <v>0.8864401805873103</v>
       </c>
       <c r="Y7">
-        <v>0.8957373403647939</v>
+        <v>0.8889111988161121</v>
       </c>
       <c r="Z7">
-        <v>0.8957373403647939</v>
+        <v>0.8889111988161121</v>
       </c>
       <c r="AA7">
-        <v>0.8957373403647939</v>
+        <v>0.8889111988161121</v>
       </c>
       <c r="AB7">
-        <v>0.9010573841731471</v>
+        <v>0.8957685210745469</v>
       </c>
       <c r="AC7">
-        <v>0.9064089333268217</v>
+        <v>0.9026563045466846</v>
       </c>
       <c r="AD7">
-        <v>0.9064089333268217</v>
+        <v>0.9026563045466846</v>
       </c>
       <c r="AE7">
-        <v>0.9064089333268217</v>
+        <v>0.9026563045466846</v>
       </c>
       <c r="AF7">
-        <v>0.9272011687524263</v>
+        <v>0.9244730481508118</v>
       </c>
       <c r="AG7">
-        <v>0.9449633727226404</v>
+        <v>0.9433601798193327</v>
       </c>
       <c r="AH7">
-        <v>0.9839180409242683</v>
+        <v>0.9827374275382359</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -4624,211 +4624,211 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2721481215354075</v>
+        <v>0.252462586395978</v>
       </c>
       <c r="E8">
-        <v>0.3147741510979137</v>
+        <v>0.2954797844320649</v>
       </c>
       <c r="F8">
-        <v>0.5394363184957316</v>
+        <v>0.5046100971436357</v>
       </c>
       <c r="G8">
-        <v>0.6143641531923292</v>
+        <v>0.5771036042481936</v>
       </c>
       <c r="H8">
-        <v>0.6396818685887882</v>
+        <v>0.6043264769920956</v>
       </c>
       <c r="I8">
-        <v>0.6396818685887882</v>
+        <v>0.6043264769920956</v>
       </c>
       <c r="J8">
-        <v>0.6757900919692149</v>
+        <v>0.6413959928886291</v>
       </c>
       <c r="K8">
-        <v>0.6940178901536775</v>
+        <v>0.6621491160274195</v>
       </c>
       <c r="L8">
-        <v>0.771045165923536</v>
+        <v>0.7365584223787871</v>
       </c>
       <c r="M8">
-        <v>0.7796337061630886</v>
+        <v>0.7485154505255051</v>
       </c>
       <c r="N8">
-        <v>0.7796337061630886</v>
+        <v>0.7485154505255051</v>
       </c>
       <c r="O8">
-        <v>0.7819879860046191</v>
+        <v>0.7547835400651516</v>
       </c>
       <c r="P8">
-        <v>0.8103198330315675</v>
+        <v>0.7847568930111521</v>
       </c>
       <c r="Q8">
-        <v>0.8165155833284269</v>
+        <v>0.7945304327864318</v>
       </c>
       <c r="R8">
-        <v>0.8165155833284269</v>
+        <v>0.7945304327864318</v>
       </c>
       <c r="S8">
-        <v>0.8165155833284269</v>
+        <v>0.7947655735284418</v>
       </c>
       <c r="T8">
-        <v>0.8165155833284269</v>
+        <v>0.7947655735284418</v>
       </c>
       <c r="U8">
-        <v>0.8165155833284269</v>
+        <v>0.7947655735284418</v>
       </c>
       <c r="V8">
-        <v>0.8165155833284269</v>
+        <v>0.7973637204131953</v>
       </c>
       <c r="W8">
-        <v>0.8823377497974397</v>
+        <v>0.8615480482060381</v>
       </c>
       <c r="X8">
-        <v>0.8856722635325115</v>
+        <v>0.8687106288456549</v>
       </c>
       <c r="Y8">
-        <v>0.8856722635325115</v>
+        <v>0.8709542566525023</v>
       </c>
       <c r="Z8">
-        <v>0.8856722635325115</v>
+        <v>0.8709542566525023</v>
       </c>
       <c r="AA8">
-        <v>0.8856722635325115</v>
+        <v>0.8709542566525023</v>
       </c>
       <c r="AB8">
-        <v>0.8964957387162337</v>
+        <v>0.8849507260282412</v>
       </c>
       <c r="AC8">
-        <v>0.9119991080348251</v>
+        <v>0.9032177309159891</v>
       </c>
       <c r="AD8">
-        <v>0.9119991080348251</v>
+        <v>0.9032177309159891</v>
       </c>
       <c r="AE8">
-        <v>0.9119991080348251</v>
+        <v>0.9032177309159891</v>
       </c>
       <c r="AF8">
-        <v>0.9353347336290169</v>
+        <v>0.928631890760703</v>
       </c>
       <c r="AG8">
-        <v>0.9463588654732259</v>
+        <v>0.9428114650036964</v>
       </c>
       <c r="AH8">
-        <v>0.9898459426994768</v>
+        <v>0.9866143933404231</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BB8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:72">
@@ -4953,100 +4953,100 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.1974303193542334</v>
+        <v>0.1611387647128754</v>
       </c>
       <c r="AP9">
-        <v>0.2136156999932746</v>
+        <v>0.1835291536065047</v>
       </c>
       <c r="AQ9">
-        <v>0.4031875870253346</v>
+        <v>0.3386520553169909</v>
       </c>
       <c r="AR9">
-        <v>0.4031875870253346</v>
+        <v>0.3438308266033563</v>
       </c>
       <c r="AS9">
-        <v>0.4199074808416736</v>
+        <v>0.3666304011864166</v>
       </c>
       <c r="AT9">
-        <v>0.4199074808416736</v>
+        <v>0.3675741748095107</v>
       </c>
       <c r="AU9">
-        <v>0.5116299721148763</v>
+        <v>0.4477904621191938</v>
       </c>
       <c r="AV9">
-        <v>0.5116299721148763</v>
+        <v>0.4479578213749382</v>
       </c>
       <c r="AW9">
-        <v>0.5519371973487636</v>
+        <v>0.4888141976943374</v>
       </c>
       <c r="AX9">
-        <v>0.6471757793547003</v>
+        <v>0.5717221567376326</v>
       </c>
       <c r="AY9">
-        <v>0.6535751042254411</v>
+        <v>0.5866210297127848</v>
       </c>
       <c r="AZ9">
-        <v>0.6600859432842505</v>
+        <v>0.6016052701061118</v>
       </c>
       <c r="BA9">
-        <v>0.6600859432842505</v>
+        <v>0.6016263985208876</v>
       </c>
       <c r="BB9">
-        <v>0.7615792619594367</v>
+        <v>0.6893225439830002</v>
       </c>
       <c r="BC9">
-        <v>0.7615792619594367</v>
+        <v>0.6989635086856345</v>
       </c>
       <c r="BD9">
-        <v>0.7615792619594367</v>
+        <v>0.7075975694491712</v>
       </c>
       <c r="BE9">
-        <v>0.8369806564277887</v>
+        <v>0.7753195731153248</v>
       </c>
       <c r="BF9">
-        <v>0.8369806564277887</v>
+        <v>0.7760235787152658</v>
       </c>
       <c r="BG9">
-        <v>0.8369806564277887</v>
+        <v>0.7767773633001501</v>
       </c>
       <c r="BH9">
-        <v>0.9642247821534191</v>
+        <v>0.8841865152583963</v>
       </c>
       <c r="BI9">
-        <v>0.9725259541586047</v>
+        <v>0.9005413086185882</v>
       </c>
       <c r="BJ9">
-        <v>0.985373054246115</v>
+        <v>0.9203761447456835</v>
       </c>
       <c r="BK9">
-        <v>0.985373054246115</v>
+        <v>0.9271295733947367</v>
       </c>
       <c r="BL9">
-        <v>0.985373054246115</v>
+        <v>0.9307285964143143</v>
       </c>
       <c r="BM9">
-        <v>0.9854773398765219</v>
+        <v>0.9408084301572194</v>
       </c>
       <c r="BN9">
-        <v>0.9855931451962787</v>
+        <v>0.9508970825639647</v>
       </c>
       <c r="BO9">
-        <v>0.9855931451962787</v>
+        <v>0.9509071623932397</v>
       </c>
       <c r="BP9">
-        <v>0.9855931451962787</v>
+        <v>0.9518153095616062</v>
       </c>
       <c r="BQ9">
-        <v>0.9894094511182475</v>
+        <v>0.964736804926145</v>
       </c>
       <c r="BR9">
-        <v>0.9894094511182475</v>
+        <v>0.971892620744094</v>
       </c>
       <c r="BS9">
-        <v>0.9926184754128539</v>
+        <v>0.9843492240125625</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -5060,97 +5060,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1578155875993556</v>
+        <v>0.1468410307373983</v>
       </c>
       <c r="E10">
-        <v>0.1578155875993556</v>
+        <v>0.1468410307373983</v>
       </c>
       <c r="F10">
-        <v>0.5000115954786807</v>
+        <v>0.4586499754604463</v>
       </c>
       <c r="G10">
-        <v>0.5919876369396684</v>
+        <v>0.5465833815828441</v>
       </c>
       <c r="H10">
-        <v>0.5919876369396684</v>
+        <v>0.5465833815828441</v>
       </c>
       <c r="I10">
-        <v>0.594661780975248</v>
+        <v>0.5546170472075225</v>
       </c>
       <c r="J10">
-        <v>0.6370266881127365</v>
+        <v>0.5981626309820686</v>
       </c>
       <c r="K10">
-        <v>0.6720698769951415</v>
+        <v>0.6351573641538352</v>
       </c>
       <c r="L10">
-        <v>0.6731132258315277</v>
+        <v>0.6417319329734392</v>
       </c>
       <c r="M10">
-        <v>0.791461142944602</v>
+        <v>0.75326064985393</v>
       </c>
       <c r="N10">
-        <v>0.791461142944602</v>
+        <v>0.75326064985393</v>
       </c>
       <c r="O10">
-        <v>0.791461142944602</v>
+        <v>0.75326064985393</v>
       </c>
       <c r="P10">
-        <v>0.791461142944602</v>
+        <v>0.75326064985393</v>
       </c>
       <c r="Q10">
-        <v>0.8308200487324919</v>
+        <v>0.7941167193550607</v>
       </c>
       <c r="R10">
-        <v>0.8308200487324919</v>
+        <v>0.7941167193550607</v>
       </c>
       <c r="S10">
-        <v>0.8308200487324919</v>
+        <v>0.7995731177070428</v>
       </c>
       <c r="T10">
-        <v>0.8524882734571766</v>
+        <v>0.824601070819508</v>
       </c>
       <c r="U10">
-        <v>0.8524882734571766</v>
+        <v>0.824601070819508</v>
       </c>
       <c r="V10">
-        <v>0.8524882734571766</v>
+        <v>0.824601070819508</v>
       </c>
       <c r="W10">
-        <v>0.9288529776915573</v>
+        <v>0.898566780518992</v>
       </c>
       <c r="X10">
-        <v>0.9645385992096915</v>
+        <v>0.9361363077585432</v>
       </c>
       <c r="Y10">
-        <v>0.9648100587146117</v>
+        <v>0.9420202556724872</v>
       </c>
       <c r="Z10">
-        <v>0.9648100587146117</v>
+        <v>0.9420202556724872</v>
       </c>
       <c r="AA10">
-        <v>0.9648100587146117</v>
+        <v>0.9420202556724872</v>
       </c>
       <c r="AB10">
-        <v>0.9648100587146117</v>
+        <v>0.9420202556724872</v>
       </c>
       <c r="AC10">
-        <v>0.9660810796674336</v>
+        <v>0.9487985261327756</v>
       </c>
       <c r="AD10">
-        <v>0.9660810796674336</v>
+        <v>0.9487985261327756</v>
       </c>
       <c r="AE10">
-        <v>0.9660810796674336</v>
+        <v>0.9487985261327756</v>
       </c>
       <c r="AF10">
-        <v>0.9660810796674336</v>
+        <v>0.9527290285935186</v>
       </c>
       <c r="AG10">
-        <v>0.9727173629264553</v>
+        <v>0.9643076793181303</v>
       </c>
       <c r="AH10">
-        <v>0.9898101850726884</v>
+        <v>0.9852419514537022</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -5389,100 +5389,100 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.2263349956905813</v>
+        <v>0.1849880283976083</v>
       </c>
       <c r="AP11">
-        <v>0.3479283896657382</v>
+        <v>0.2889964172151038</v>
       </c>
       <c r="AQ11">
-        <v>0.5212193448986036</v>
+        <v>0.4329741191732778</v>
       </c>
       <c r="AR11">
-        <v>0.5212193448986036</v>
+        <v>0.4387268788081138</v>
       </c>
       <c r="AS11">
-        <v>0.5338865084804257</v>
+        <v>0.4585203355106882</v>
       </c>
       <c r="AT11">
-        <v>0.5338865084804257</v>
+        <v>0.458837195660981</v>
       </c>
       <c r="AU11">
-        <v>0.6179520010216104</v>
+        <v>0.5338313639343052</v>
       </c>
       <c r="AV11">
-        <v>0.6179520010216104</v>
+        <v>0.5339476143526812</v>
       </c>
       <c r="AW11">
-        <v>0.7264230540648824</v>
+        <v>0.6278106318782757</v>
       </c>
       <c r="AX11">
-        <v>0.7520508924493121</v>
+        <v>0.6576244697573931</v>
       </c>
       <c r="AY11">
-        <v>0.7520508924493121</v>
+        <v>0.6599564062782277</v>
       </c>
       <c r="AZ11">
-        <v>0.761337827674851</v>
+        <v>0.6771364823420946</v>
       </c>
       <c r="BA11">
-        <v>0.776431439450376</v>
+        <v>0.6988059166597499</v>
       </c>
       <c r="BB11">
-        <v>0.8075650950088356</v>
+        <v>0.7328765071858079</v>
       </c>
       <c r="BC11">
-        <v>0.8523086117698785</v>
+        <v>0.7774693891115616</v>
       </c>
       <c r="BD11">
-        <v>0.8523086117698785</v>
+        <v>0.7803313177396616</v>
       </c>
       <c r="BE11">
-        <v>0.8675357302118444</v>
+        <v>0.8021039710414919</v>
       </c>
       <c r="BF11">
-        <v>0.8738813228250952</v>
+        <v>0.8170099854075832</v>
       </c>
       <c r="BG11">
-        <v>0.8795059300644112</v>
+        <v>0.831358579085356</v>
       </c>
       <c r="BH11">
-        <v>0.990409884446515</v>
+        <v>0.9271025633932596</v>
       </c>
       <c r="BI11">
-        <v>0.990409884446515</v>
+        <v>0.9274476693816062</v>
       </c>
       <c r="BJ11">
-        <v>0.990409884446515</v>
+        <v>0.9337375238616337</v>
       </c>
       <c r="BK11">
-        <v>0.990409884446515</v>
+        <v>0.9431867806900029</v>
       </c>
       <c r="BL11">
-        <v>0.990409884446515</v>
+        <v>0.9437766056932999</v>
       </c>
       <c r="BM11">
-        <v>0.990409884446515</v>
+        <v>0.9505687482685161</v>
       </c>
       <c r="BN11">
-        <v>0.990409884446515</v>
+        <v>0.9544087317370757</v>
       </c>
       <c r="BO11">
-        <v>0.990409884446515</v>
+        <v>0.9553524964781477</v>
       </c>
       <c r="BP11">
-        <v>0.990409884446515</v>
+        <v>0.9555675370754723</v>
       </c>
       <c r="BQ11">
-        <v>0.990409884446515</v>
+        <v>0.9641930923003253</v>
       </c>
       <c r="BR11">
-        <v>0.990532019522235</v>
+        <v>0.9742875194835068</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999997</v>
+        <v>0.9916075683856043</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5550,16 +5550,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5007696323454374</v>
+        <v>0.5910074255361116</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6337462091002749</v>
+        <v>0.5570853894022909</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -5632,16 +5632,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5301047274187233</v>
+        <v>0.5622953749121932</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -5673,16 +5673,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6071077292869015</v>
+        <v>0.5192148344071313</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -5714,16 +5714,16 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5593981120418293</v>
+        <v>0.5044221929556226</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.550573895275895</v>
+        <v>0.5357542835911395</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5394363184957316</v>
+        <v>0.5046100971436357</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -5837,16 +5837,16 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5116299721148763</v>
+        <v>0.5717221567376326</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -5878,16 +5878,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.5465833815828441</v>
+      </c>
+      <c r="G10">
         <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5000115954786807</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -5919,16 +5919,16 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5212193448986036</v>
+        <v>0.5338313639343052</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -6014,16 +6014,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7392431865904223</v>
+        <v>0.7060384415176922</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -6055,16 +6055,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7245685940830732</v>
+        <v>0.7275043642194797</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -6096,16 +6096,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7095167099035341</v>
+        <v>0.7051447647700984</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -6137,16 +6137,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.70024315788925</v>
+        <v>0.7107802636082431</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6178,16 +6178,16 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7011331255782283</v>
+        <v>0.7331238153921108</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7158945899695646</v>
+        <v>0.7024503859350141</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.771045165923536</v>
+        <v>0.7365584223787871</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -6301,16 +6301,16 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7615792619594367</v>
+        <v>0.7075975694491712</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.791461142944602</v>
+        <v>0.75326064985393</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -6383,16 +6383,16 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7264230540648824</v>
+        <v>0.7328765071858079</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -6478,16 +6478,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8392712461502708</v>
+        <v>0.8522957781281384</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -6519,16 +6519,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8514888455403856</v>
+        <v>0.81929897589913</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -6560,16 +6560,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8197281195314211</v>
+        <v>0.8788766627485739</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -6601,16 +6601,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.808837032812426</v>
+        <v>0.8468459222399686</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8693771926166876</v>
+        <v>0.8297055244357208</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8137411774001267</v>
+        <v>0.8039085681804958</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -6724,16 +6724,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8103198330315675</v>
+        <v>0.8615480482060381</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -6765,16 +6765,16 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8369806564277887</v>
+        <v>0.8841865152583963</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6806,16 +6806,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8308200487324919</v>
+        <v>0.824601070819508</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -6847,16 +6847,16 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8075650950088356</v>
+        <v>0.8021039710414919</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -6942,16 +6942,16 @@
         <v>38</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9402073162868539</v>
+        <v>0.9114334745329498</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -6983,16 +6983,16 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9049467913242555</v>
+        <v>0.9172482933446846</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -7024,16 +7024,16 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9405199271636067</v>
+        <v>0.9035805022558722</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -7065,16 +7065,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.910269621575982</v>
+        <v>0.9030773152252428</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -7106,16 +7106,16 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9054153091612243</v>
+        <v>0.9054226877218741</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -7147,16 +7147,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.9026563045466846</v>
+      </c>
+      <c r="G7">
         <v>27</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9010573841731471</v>
-      </c>
-      <c r="G7">
-        <v>26</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9119991080348251</v>
+        <v>0.9032177309159891</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -7229,16 +7229,16 @@
         <v>38</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9642247821534191</v>
+        <v>0.9005413086185882</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7270,16 +7270,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.9361363077585432</v>
+      </c>
+      <c r="G10">
         <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9288529776915573</v>
-      </c>
-      <c r="G10">
-        <v>21</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.990409884446515</v>
+        <v>0.9271025633932596</v>
       </c>
       <c r="G11">
         <v>21</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
@@ -1231,103 +1231,103 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.003138705231180043</v>
       </c>
       <c r="AO3">
-        <v>0.0857002670956465</v>
+        <v>0.08655698538994334</v>
       </c>
       <c r="AP3">
-        <v>0.1890461935933762</v>
+        <v>0.1909360282229214</v>
       </c>
       <c r="AQ3">
-        <v>0.04956014656443426</v>
+        <v>0.0500555835761112</v>
       </c>
       <c r="AR3">
-        <v>0.0001989547730391222</v>
+        <v>0.000200943660583779</v>
       </c>
       <c r="AS3">
-        <v>0.02590736071296167</v>
+        <v>0.02616634835246307</v>
       </c>
       <c r="AT3">
-        <v>0.03595149208127125</v>
+        <v>0.03631088770531193</v>
       </c>
       <c r="AU3">
-        <v>0.02910088577780513</v>
+        <v>0.02939179807097527</v>
       </c>
       <c r="AV3">
-        <v>5.132133393345735E-05</v>
+        <v>5.183437697472861E-05</v>
       </c>
       <c r="AW3">
-        <v>0.1415687674698234</v>
+        <v>0.1429839853810709</v>
       </c>
       <c r="AX3">
-        <v>0.0002792704462042901</v>
+        <v>0.0002820622239714776</v>
       </c>
       <c r="AY3">
-        <v>0.01575130443425728</v>
+        <v>0.01590876521151258</v>
       </c>
       <c r="AZ3">
-        <v>0.03145485226612948</v>
+        <v>0.03176929641308554</v>
       </c>
       <c r="BA3">
-        <v>0.05256234912724426</v>
+        <v>0.05308779820242941</v>
       </c>
       <c r="BB3">
-        <v>0.002676939309930768</v>
+        <v>0.0027036998202216</v>
       </c>
       <c r="BC3">
-        <v>0.06769425923342286</v>
+        <v>0.06837097719790038</v>
       </c>
       <c r="BD3">
-        <v>0.04980413067475936</v>
+        <v>0.05030200671793431</v>
       </c>
       <c r="BE3">
-        <v>0.006510181166959709</v>
+        <v>0.006575261376087838</v>
       </c>
       <c r="BF3">
-        <v>0.03548029983793137</v>
+        <v>0.03583498510308193</v>
       </c>
       <c r="BG3">
-        <v>0.02558535817866346</v>
+        <v>0.02584112686131336</v>
       </c>
       <c r="BH3">
-        <v>0.07236395926689111</v>
+        <v>0.07308735873637592</v>
       </c>
       <c r="BI3">
-        <v>0.01023901866812264</v>
+        <v>0.01034137487897129</v>
       </c>
       <c r="BJ3">
-        <v>0.0007662616005865862</v>
+        <v>0.0007739216739292636</v>
       </c>
       <c r="BK3">
-        <v>0.004021469802913399</v>
+        <v>0.004061671156618318</v>
       </c>
       <c r="BL3">
-        <v>0.009994359778589416</v>
+        <v>0.01009427021238709</v>
       </c>
       <c r="BM3">
-        <v>0.006917657032937319</v>
+        <v>0.006986810648610118</v>
       </c>
       <c r="BN3">
-        <v>0.0005727799414455385</v>
+        <v>0.0005785058402212682</v>
       </c>
       <c r="BO3">
-        <v>0.0003441378246944437</v>
+        <v>0.0003475780609990308</v>
       </c>
       <c r="BP3">
-        <v>0.002845595931612141</v>
+        <v>0.002874042448471511</v>
       </c>
       <c r="BQ3">
-        <v>0.01314992227945014</v>
+        <v>0.01328137786724677</v>
       </c>
       <c r="BR3">
-        <v>0.01426028977738931</v>
+        <v>0.01440284535566573</v>
       </c>
       <c r="BS3">
-        <v>0.006634837664965398</v>
+        <v>0.006701164025429616</v>
       </c>
       <c r="BT3">
-        <v>0.0130053763526089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1667,103 +1667,103 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.009561746999716953</v>
       </c>
       <c r="AO5">
-        <v>0.1410612498598294</v>
+        <v>0.1413151689822015</v>
       </c>
       <c r="AP5">
-        <v>0.2181479010517564</v>
+        <v>0.2185405809949542</v>
       </c>
       <c r="AQ5">
-        <v>0.139009907792523</v>
+        <v>0.1392601343701464</v>
       </c>
       <c r="AR5">
-        <v>0.0009527868245702934</v>
+        <v>0.0009545019007839453</v>
       </c>
       <c r="AS5">
-        <v>0.02004298887845229</v>
+        <v>0.02007906751911928</v>
       </c>
       <c r="AT5">
-        <v>0.01058938382466851</v>
+        <v>0.01060844538161553</v>
       </c>
       <c r="AU5">
-        <v>0.07119636642925078</v>
+        <v>0.07132452436701017</v>
       </c>
       <c r="AV5">
-        <v>0.0007846984720188629</v>
+        <v>0.0007861109786253176</v>
       </c>
       <c r="AW5">
-        <v>0.06062452040204066</v>
+        <v>0.06073364835199156</v>
       </c>
       <c r="AX5">
-        <v>0.001648425688132459</v>
+        <v>0.001651392958055575</v>
       </c>
       <c r="AY5">
-        <v>0.01979438622230643</v>
+        <v>0.01983001736255549</v>
       </c>
       <c r="AZ5">
-        <v>0.0004095671879848328</v>
+        <v>0.0004103044346846094</v>
       </c>
       <c r="BA5">
-        <v>0.01138671932311719</v>
+        <v>0.01140721613411309</v>
       </c>
       <c r="BB5">
-        <v>0.001017114295013625</v>
+        <v>0.001018945164720214</v>
       </c>
       <c r="BC5">
-        <v>0.01411424735657834</v>
+        <v>0.01413965388959351</v>
       </c>
       <c r="BD5">
-        <v>0.02783086720667993</v>
+        <v>0.02788096451818821</v>
       </c>
       <c r="BE5">
-        <v>0.003574487511241921</v>
+        <v>0.003580921813594172</v>
       </c>
       <c r="BF5">
-        <v>0.006432554633495169</v>
+        <v>0.006444133636437301</v>
       </c>
       <c r="BG5">
-        <v>0.01967492750313842</v>
+        <v>0.01971034361017913</v>
       </c>
       <c r="BH5">
-        <v>0.07855282177717011</v>
+        <v>0.07869422179727012</v>
       </c>
       <c r="BI5">
-        <v>0.007451617174862648</v>
+        <v>0.007465030554477349</v>
       </c>
       <c r="BJ5">
-        <v>0.006053459778593355</v>
+        <v>0.006064356386951943</v>
       </c>
       <c r="BK5">
-        <v>0.00454204377325507</v>
+        <v>0.004550219737737354</v>
       </c>
       <c r="BL5">
-        <v>0.008157051898241114</v>
+        <v>0.008171735104729098</v>
       </c>
       <c r="BM5">
-        <v>0.01545057873879046</v>
+        <v>0.01547839075234764</v>
       </c>
       <c r="BN5">
-        <v>0.0002816753304646522</v>
+        <v>0.0002821823637766108</v>
       </c>
       <c r="BO5">
-        <v>0.0002995345903038083</v>
+        <v>0.0003000737714068087</v>
       </c>
       <c r="BP5">
-        <v>0.01399543170076312</v>
+        <v>0.01402062435812443</v>
       </c>
       <c r="BQ5">
-        <v>0.03781271184711886</v>
+        <v>0.03788077710682888</v>
       </c>
       <c r="BR5">
-        <v>0.04060254888510798</v>
+        <v>0.0406756360269646</v>
       </c>
       <c r="BS5">
-        <v>0.007166029367500628</v>
+        <v>0.007178928671098863</v>
       </c>
       <c r="BT5">
-        <v>0.01134139467502989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -3642,103 +3642,103 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.003138705231180043</v>
       </c>
       <c r="AO3">
-        <v>0.0857002670956465</v>
+        <v>0.08969569062112338</v>
       </c>
       <c r="AP3">
-        <v>0.2747464606890226</v>
+        <v>0.2806317188440448</v>
       </c>
       <c r="AQ3">
-        <v>0.3243066072534569</v>
+        <v>0.330687302420156</v>
       </c>
       <c r="AR3">
-        <v>0.324505562026496</v>
+        <v>0.3308882460807397</v>
       </c>
       <c r="AS3">
-        <v>0.3504129227394577</v>
+        <v>0.3570545944332028</v>
       </c>
       <c r="AT3">
-        <v>0.3863644148207289</v>
+        <v>0.3933654821385147</v>
       </c>
       <c r="AU3">
-        <v>0.415465300598534</v>
+        <v>0.42275728020949</v>
       </c>
       <c r="AV3">
-        <v>0.4155166219324675</v>
+        <v>0.4228091145864647</v>
       </c>
       <c r="AW3">
-        <v>0.5570853894022909</v>
+        <v>0.5657930999675356</v>
       </c>
       <c r="AX3">
-        <v>0.5573646598484951</v>
+        <v>0.566075162191507</v>
       </c>
       <c r="AY3">
-        <v>0.5731159642827525</v>
+        <v>0.5819839274030196</v>
       </c>
       <c r="AZ3">
-        <v>0.6045708165488819</v>
+        <v>0.6137532238161052</v>
       </c>
       <c r="BA3">
-        <v>0.6571331656761261</v>
+        <v>0.6668410220185346</v>
       </c>
       <c r="BB3">
-        <v>0.6598101049860569</v>
+        <v>0.6695447218387561</v>
       </c>
       <c r="BC3">
-        <v>0.7275043642194797</v>
+        <v>0.7379156990366565</v>
       </c>
       <c r="BD3">
-        <v>0.777308494894239</v>
+        <v>0.7882177057545908</v>
       </c>
       <c r="BE3">
-        <v>0.7838186760611987</v>
+        <v>0.7947929671306787</v>
       </c>
       <c r="BF3">
-        <v>0.81929897589913</v>
+        <v>0.8306279522337606</v>
       </c>
       <c r="BG3">
-        <v>0.8448843340777935</v>
+        <v>0.856469079095074</v>
       </c>
       <c r="BH3">
-        <v>0.9172482933446846</v>
+        <v>0.9295564378314499</v>
       </c>
       <c r="BI3">
-        <v>0.9274873120128072</v>
+        <v>0.9398978127104212</v>
       </c>
       <c r="BJ3">
-        <v>0.9282535736133938</v>
+        <v>0.9406717343843505</v>
       </c>
       <c r="BK3">
-        <v>0.9322750434163072</v>
+        <v>0.9447334055409689</v>
       </c>
       <c r="BL3">
-        <v>0.9422694031948966</v>
+        <v>0.9548276757533559</v>
       </c>
       <c r="BM3">
-        <v>0.9491870602278339</v>
+        <v>0.961814486401966</v>
       </c>
       <c r="BN3">
-        <v>0.9497598401692795</v>
+        <v>0.9623929922421872</v>
       </c>
       <c r="BO3">
-        <v>0.9501039779939739</v>
+        <v>0.9627405703031863</v>
       </c>
       <c r="BP3">
-        <v>0.9529495739255861</v>
+        <v>0.9656146127516578</v>
       </c>
       <c r="BQ3">
-        <v>0.9660994962050362</v>
+        <v>0.9788959906189046</v>
       </c>
       <c r="BR3">
-        <v>0.9803597859824256</v>
+        <v>0.9932988359745704</v>
       </c>
       <c r="BS3">
-        <v>0.986994623647391</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -4078,100 +4078,100 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.009561746999716953</v>
       </c>
       <c r="AO5">
-        <v>0.1410612498598294</v>
+        <v>0.1508769159819184</v>
       </c>
       <c r="AP5">
-        <v>0.3592091509115858</v>
+        <v>0.3694174969768727</v>
       </c>
       <c r="AQ5">
-        <v>0.4982190587041088</v>
+        <v>0.508677631347019</v>
       </c>
       <c r="AR5">
-        <v>0.499171845528679</v>
+        <v>0.509632133247803</v>
       </c>
       <c r="AS5">
-        <v>0.5192148344071313</v>
+        <v>0.5297112007669222</v>
       </c>
       <c r="AT5">
-        <v>0.5298042182317999</v>
+        <v>0.5403196461485378</v>
       </c>
       <c r="AU5">
-        <v>0.6010005846610507</v>
+        <v>0.611644170515548</v>
       </c>
       <c r="AV5">
-        <v>0.6017852831330696</v>
+        <v>0.6124302814941733</v>
       </c>
       <c r="AW5">
-        <v>0.6624098035351103</v>
+        <v>0.6731639298461649</v>
       </c>
       <c r="AX5">
-        <v>0.6640582292232428</v>
+        <v>0.6748153228042205</v>
       </c>
       <c r="AY5">
-        <v>0.6838526154455492</v>
+        <v>0.694645340166776</v>
       </c>
       <c r="AZ5">
-        <v>0.684262182633534</v>
+        <v>0.6950556446014606</v>
       </c>
       <c r="BA5">
-        <v>0.6956489019566512</v>
+        <v>0.7064628607355737</v>
       </c>
       <c r="BB5">
-        <v>0.6966660162516648</v>
+        <v>0.707481805900294</v>
       </c>
       <c r="BC5">
-        <v>0.7107802636082431</v>
+        <v>0.7216214597898875</v>
       </c>
       <c r="BD5">
-        <v>0.738611130814923</v>
+        <v>0.7495024243080757</v>
       </c>
       <c r="BE5">
-        <v>0.7421856183261649</v>
+        <v>0.7530833461216698</v>
       </c>
       <c r="BF5">
-        <v>0.74861817295966</v>
+        <v>0.7595274797581071</v>
       </c>
       <c r="BG5">
-        <v>0.7682931004627984</v>
+        <v>0.7792378233682862</v>
       </c>
       <c r="BH5">
-        <v>0.8468459222399686</v>
+        <v>0.8579320451655563</v>
       </c>
       <c r="BI5">
-        <v>0.8542975394148312</v>
+        <v>0.8653970757200337</v>
       </c>
       <c r="BJ5">
-        <v>0.8603509991934246</v>
+        <v>0.8714614321069856</v>
       </c>
       <c r="BK5">
-        <v>0.8648930429666797</v>
+        <v>0.876011651844723</v>
       </c>
       <c r="BL5">
-        <v>0.8730500948649208</v>
+        <v>0.8841833869494521</v>
       </c>
       <c r="BM5">
-        <v>0.8885006736037112</v>
+        <v>0.8996617777017998</v>
       </c>
       <c r="BN5">
-        <v>0.8887823489341758</v>
+        <v>0.8999439600655764</v>
       </c>
       <c r="BO5">
-        <v>0.8890818835244797</v>
+        <v>0.9002440338369833</v>
       </c>
       <c r="BP5">
-        <v>0.9030773152252428</v>
+        <v>0.9142646581951077</v>
       </c>
       <c r="BQ5">
-        <v>0.9408900270723617</v>
+        <v>0.9521454353019366</v>
       </c>
       <c r="BR5">
-        <v>0.9814925759574696</v>
+        <v>0.9928210713289012</v>
       </c>
       <c r="BS5">
-        <v>0.9886586053249703</v>
+        <v>1</v>
       </c>
       <c r="BT5">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5570853894022909</v>
+        <v>0.5657930999675356</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -5673,16 +5673,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5192148344071313</v>
+        <v>0.508677631347019</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7275043642194797</v>
+        <v>0.7379156990366565</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -6137,16 +6137,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7107802636082431</v>
+        <v>0.7064628607355737</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.81929897589913</v>
+        <v>0.8306279522337606</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8468459222399686</v>
+        <v>0.8579320451655563</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9172482933446846</v>
+        <v>0.9295564378314499</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -7065,16 +7065,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9030773152252428</v>
+        <v>0.9002440338369833</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>2</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
@@ -1231,103 +1231,103 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003138705231180043</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.08655698538994334</v>
+        <v>0.0857002670956465</v>
       </c>
       <c r="AP3">
-        <v>0.1909360282229214</v>
+        <v>0.1890461935933762</v>
       </c>
       <c r="AQ3">
-        <v>0.0500555835761112</v>
+        <v>0.04956014656443426</v>
       </c>
       <c r="AR3">
-        <v>0.000200943660583779</v>
+        <v>0.0001989547730391222</v>
       </c>
       <c r="AS3">
-        <v>0.02616634835246307</v>
+        <v>0.02590736071296167</v>
       </c>
       <c r="AT3">
-        <v>0.03631088770531193</v>
+        <v>0.03595149208127125</v>
       </c>
       <c r="AU3">
-        <v>0.02939179807097527</v>
+        <v>0.02910088577780513</v>
       </c>
       <c r="AV3">
-        <v>5.183437697472861E-05</v>
+        <v>5.132133393345735E-05</v>
       </c>
       <c r="AW3">
-        <v>0.1429839853810709</v>
+        <v>0.1415687674698234</v>
       </c>
       <c r="AX3">
-        <v>0.0002820622239714776</v>
+        <v>0.0002792704462042901</v>
       </c>
       <c r="AY3">
-        <v>0.01590876521151258</v>
+        <v>0.01575130443425728</v>
       </c>
       <c r="AZ3">
-        <v>0.03176929641308554</v>
+        <v>0.03145485226612948</v>
       </c>
       <c r="BA3">
-        <v>0.05308779820242941</v>
+        <v>0.05256234912724426</v>
       </c>
       <c r="BB3">
-        <v>0.0027036998202216</v>
+        <v>0.002676939309930768</v>
       </c>
       <c r="BC3">
-        <v>0.06837097719790038</v>
+        <v>0.06769425923342286</v>
       </c>
       <c r="BD3">
-        <v>0.05030200671793431</v>
+        <v>0.04980413067475936</v>
       </c>
       <c r="BE3">
-        <v>0.006575261376087838</v>
+        <v>0.006510181166959709</v>
       </c>
       <c r="BF3">
-        <v>0.03583498510308193</v>
+        <v>0.03548029983793137</v>
       </c>
       <c r="BG3">
-        <v>0.02584112686131336</v>
+        <v>0.02558535817866346</v>
       </c>
       <c r="BH3">
-        <v>0.07308735873637592</v>
+        <v>0.07236395926689111</v>
       </c>
       <c r="BI3">
-        <v>0.01034137487897129</v>
+        <v>0.01023901866812264</v>
       </c>
       <c r="BJ3">
-        <v>0.0007739216739292636</v>
+        <v>0.0007662616005865862</v>
       </c>
       <c r="BK3">
-        <v>0.004061671156618318</v>
+        <v>0.004021469802913399</v>
       </c>
       <c r="BL3">
-        <v>0.01009427021238709</v>
+        <v>0.009994359778589416</v>
       </c>
       <c r="BM3">
-        <v>0.006986810648610118</v>
+        <v>0.006917657032937319</v>
       </c>
       <c r="BN3">
-        <v>0.0005785058402212682</v>
+        <v>0.0005727799414455385</v>
       </c>
       <c r="BO3">
-        <v>0.0003475780609990308</v>
+        <v>0.0003441378246944437</v>
       </c>
       <c r="BP3">
-        <v>0.002874042448471511</v>
+        <v>0.002845595931612141</v>
       </c>
       <c r="BQ3">
-        <v>0.01328137786724677</v>
+        <v>0.01314992227945014</v>
       </c>
       <c r="BR3">
-        <v>0.01440284535566573</v>
+        <v>0.01426028977738931</v>
       </c>
       <c r="BS3">
-        <v>0.006701164025429616</v>
+        <v>0.006634837664965398</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>0.0130053763526089</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1667,103 +1667,103 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.009561746999716953</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.1413151689822015</v>
+        <v>0.1410612498598294</v>
       </c>
       <c r="AP5">
-        <v>0.2185405809949542</v>
+        <v>0.2181479010517564</v>
       </c>
       <c r="AQ5">
-        <v>0.1392601343701464</v>
+        <v>0.139009907792523</v>
       </c>
       <c r="AR5">
-        <v>0.0009545019007839453</v>
+        <v>0.0009527868245702934</v>
       </c>
       <c r="AS5">
-        <v>0.02007906751911928</v>
+        <v>0.02004298887845229</v>
       </c>
       <c r="AT5">
-        <v>0.01060844538161553</v>
+        <v>0.01058938382466851</v>
       </c>
       <c r="AU5">
-        <v>0.07132452436701017</v>
+        <v>0.07119636642925078</v>
       </c>
       <c r="AV5">
-        <v>0.0007861109786253176</v>
+        <v>0.0007846984720188629</v>
       </c>
       <c r="AW5">
-        <v>0.06073364835199156</v>
+        <v>0.06062452040204066</v>
       </c>
       <c r="AX5">
-        <v>0.001651392958055575</v>
+        <v>0.001648425688132459</v>
       </c>
       <c r="AY5">
-        <v>0.01983001736255549</v>
+        <v>0.01979438622230643</v>
       </c>
       <c r="AZ5">
-        <v>0.0004103044346846094</v>
+        <v>0.0004095671879848328</v>
       </c>
       <c r="BA5">
-        <v>0.01140721613411309</v>
+        <v>0.01138671932311719</v>
       </c>
       <c r="BB5">
-        <v>0.001018945164720214</v>
+        <v>0.001017114295013625</v>
       </c>
       <c r="BC5">
-        <v>0.01413965388959351</v>
+        <v>0.01411424735657834</v>
       </c>
       <c r="BD5">
-        <v>0.02788096451818821</v>
+        <v>0.02783086720667993</v>
       </c>
       <c r="BE5">
-        <v>0.003580921813594172</v>
+        <v>0.003574487511241921</v>
       </c>
       <c r="BF5">
-        <v>0.006444133636437301</v>
+        <v>0.006432554633495169</v>
       </c>
       <c r="BG5">
-        <v>0.01971034361017913</v>
+        <v>0.01967492750313842</v>
       </c>
       <c r="BH5">
-        <v>0.07869422179727012</v>
+        <v>0.07855282177717011</v>
       </c>
       <c r="BI5">
-        <v>0.007465030554477349</v>
+        <v>0.007451617174862648</v>
       </c>
       <c r="BJ5">
-        <v>0.006064356386951943</v>
+        <v>0.006053459778593355</v>
       </c>
       <c r="BK5">
-        <v>0.004550219737737354</v>
+        <v>0.00454204377325507</v>
       </c>
       <c r="BL5">
-        <v>0.008171735104729098</v>
+        <v>0.008157051898241114</v>
       </c>
       <c r="BM5">
-        <v>0.01547839075234764</v>
+        <v>0.01545057873879046</v>
       </c>
       <c r="BN5">
-        <v>0.0002821823637766108</v>
+        <v>0.0002816753304646522</v>
       </c>
       <c r="BO5">
-        <v>0.0003000737714068087</v>
+        <v>0.0002995345903038083</v>
       </c>
       <c r="BP5">
-        <v>0.01402062435812443</v>
+        <v>0.01399543170076312</v>
       </c>
       <c r="BQ5">
-        <v>0.03788077710682888</v>
+        <v>0.03781271184711886</v>
       </c>
       <c r="BR5">
-        <v>0.0406756360269646</v>
+        <v>0.04060254888510798</v>
       </c>
       <c r="BS5">
-        <v>0.007178928671098863</v>
+        <v>0.007166029367500628</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.01134139467502989</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -3642,103 +3642,103 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003138705231180043</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.08969569062112338</v>
+        <v>0.0857002670956465</v>
       </c>
       <c r="AP3">
-        <v>0.2806317188440448</v>
+        <v>0.2747464606890226</v>
       </c>
       <c r="AQ3">
-        <v>0.330687302420156</v>
+        <v>0.3243066072534569</v>
       </c>
       <c r="AR3">
-        <v>0.3308882460807397</v>
+        <v>0.324505562026496</v>
       </c>
       <c r="AS3">
-        <v>0.3570545944332028</v>
+        <v>0.3504129227394577</v>
       </c>
       <c r="AT3">
-        <v>0.3933654821385147</v>
+        <v>0.3863644148207289</v>
       </c>
       <c r="AU3">
-        <v>0.42275728020949</v>
+        <v>0.415465300598534</v>
       </c>
       <c r="AV3">
-        <v>0.4228091145864647</v>
+        <v>0.4155166219324675</v>
       </c>
       <c r="AW3">
-        <v>0.5657930999675356</v>
+        <v>0.5570853894022909</v>
       </c>
       <c r="AX3">
-        <v>0.566075162191507</v>
+        <v>0.5573646598484951</v>
       </c>
       <c r="AY3">
-        <v>0.5819839274030196</v>
+        <v>0.5731159642827525</v>
       </c>
       <c r="AZ3">
-        <v>0.6137532238161052</v>
+        <v>0.6045708165488819</v>
       </c>
       <c r="BA3">
-        <v>0.6668410220185346</v>
+        <v>0.6571331656761261</v>
       </c>
       <c r="BB3">
-        <v>0.6695447218387561</v>
+        <v>0.6598101049860569</v>
       </c>
       <c r="BC3">
-        <v>0.7379156990366565</v>
+        <v>0.7275043642194797</v>
       </c>
       <c r="BD3">
-        <v>0.7882177057545908</v>
+        <v>0.777308494894239</v>
       </c>
       <c r="BE3">
-        <v>0.7947929671306787</v>
+        <v>0.7838186760611987</v>
       </c>
       <c r="BF3">
-        <v>0.8306279522337606</v>
+        <v>0.81929897589913</v>
       </c>
       <c r="BG3">
-        <v>0.856469079095074</v>
+        <v>0.8448843340777935</v>
       </c>
       <c r="BH3">
-        <v>0.9295564378314499</v>
+        <v>0.9172482933446846</v>
       </c>
       <c r="BI3">
-        <v>0.9398978127104212</v>
+        <v>0.9274873120128072</v>
       </c>
       <c r="BJ3">
-        <v>0.9406717343843505</v>
+        <v>0.9282535736133938</v>
       </c>
       <c r="BK3">
-        <v>0.9447334055409689</v>
+        <v>0.9322750434163072</v>
       </c>
       <c r="BL3">
-        <v>0.9548276757533559</v>
+        <v>0.9422694031948966</v>
       </c>
       <c r="BM3">
-        <v>0.961814486401966</v>
+        <v>0.9491870602278339</v>
       </c>
       <c r="BN3">
-        <v>0.9623929922421872</v>
+        <v>0.9497598401692795</v>
       </c>
       <c r="BO3">
-        <v>0.9627405703031863</v>
+        <v>0.9501039779939739</v>
       </c>
       <c r="BP3">
-        <v>0.9656146127516578</v>
+        <v>0.9529495739255861</v>
       </c>
       <c r="BQ3">
-        <v>0.9788959906189046</v>
+        <v>0.9660994962050362</v>
       </c>
       <c r="BR3">
-        <v>0.9932988359745704</v>
+        <v>0.9803597859824256</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0.986994623647391</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -4078,100 +4078,100 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.009561746999716953</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.1508769159819184</v>
+        <v>0.1410612498598294</v>
       </c>
       <c r="AP5">
-        <v>0.3694174969768727</v>
+        <v>0.3592091509115858</v>
       </c>
       <c r="AQ5">
-        <v>0.508677631347019</v>
+        <v>0.4982190587041088</v>
       </c>
       <c r="AR5">
-        <v>0.509632133247803</v>
+        <v>0.499171845528679</v>
       </c>
       <c r="AS5">
-        <v>0.5297112007669222</v>
+        <v>0.5192148344071313</v>
       </c>
       <c r="AT5">
-        <v>0.5403196461485378</v>
+        <v>0.5298042182317999</v>
       </c>
       <c r="AU5">
-        <v>0.611644170515548</v>
+        <v>0.6010005846610507</v>
       </c>
       <c r="AV5">
-        <v>0.6124302814941733</v>
+        <v>0.6017852831330696</v>
       </c>
       <c r="AW5">
-        <v>0.6731639298461649</v>
+        <v>0.6624098035351103</v>
       </c>
       <c r="AX5">
-        <v>0.6748153228042205</v>
+        <v>0.6640582292232428</v>
       </c>
       <c r="AY5">
-        <v>0.694645340166776</v>
+        <v>0.6838526154455492</v>
       </c>
       <c r="AZ5">
-        <v>0.6950556446014606</v>
+        <v>0.684262182633534</v>
       </c>
       <c r="BA5">
-        <v>0.7064628607355737</v>
+        <v>0.6956489019566512</v>
       </c>
       <c r="BB5">
-        <v>0.707481805900294</v>
+        <v>0.6966660162516648</v>
       </c>
       <c r="BC5">
-        <v>0.7216214597898875</v>
+        <v>0.7107802636082431</v>
       </c>
       <c r="BD5">
-        <v>0.7495024243080757</v>
+        <v>0.738611130814923</v>
       </c>
       <c r="BE5">
-        <v>0.7530833461216698</v>
+        <v>0.7421856183261649</v>
       </c>
       <c r="BF5">
-        <v>0.7595274797581071</v>
+        <v>0.74861817295966</v>
       </c>
       <c r="BG5">
-        <v>0.7792378233682862</v>
+        <v>0.7682931004627984</v>
       </c>
       <c r="BH5">
-        <v>0.8579320451655563</v>
+        <v>0.8468459222399686</v>
       </c>
       <c r="BI5">
-        <v>0.8653970757200337</v>
+        <v>0.8542975394148312</v>
       </c>
       <c r="BJ5">
-        <v>0.8714614321069856</v>
+        <v>0.8603509991934246</v>
       </c>
       <c r="BK5">
-        <v>0.876011651844723</v>
+        <v>0.8648930429666797</v>
       </c>
       <c r="BL5">
-        <v>0.8841833869494521</v>
+        <v>0.8730500948649208</v>
       </c>
       <c r="BM5">
-        <v>0.8996617777017998</v>
+        <v>0.8885006736037112</v>
       </c>
       <c r="BN5">
-        <v>0.8999439600655764</v>
+        <v>0.8887823489341758</v>
       </c>
       <c r="BO5">
-        <v>0.9002440338369833</v>
+        <v>0.8890818835244797</v>
       </c>
       <c r="BP5">
-        <v>0.9142646581951077</v>
+        <v>0.9030773152252428</v>
       </c>
       <c r="BQ5">
-        <v>0.9521454353019366</v>
+        <v>0.9408900270723617</v>
       </c>
       <c r="BR5">
-        <v>0.9928210713289012</v>
+        <v>0.9814925759574696</v>
       </c>
       <c r="BS5">
-        <v>1</v>
+        <v>0.9886586053249703</v>
       </c>
       <c r="BT5">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5657930999675356</v>
+        <v>0.5570853894022909</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -5673,16 +5673,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.508677631347019</v>
+        <v>0.5192148344071313</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7379156990366565</v>
+        <v>0.7275043642194797</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -6137,16 +6137,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7064628607355737</v>
+        <v>0.7107802636082431</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8306279522337606</v>
+        <v>0.81929897589913</v>
       </c>
       <c r="G3">
         <v>19</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8579320451655563</v>
+        <v>0.8468459222399686</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9295564378314499</v>
+        <v>0.9172482933446846</v>
       </c>
       <c r="G3">
         <v>21</v>
@@ -7065,16 +7065,16 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9002440338369833</v>
+        <v>0.9030773152252428</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/2_245-70R19.xlsx
@@ -267,40 +267,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>245-70R19.5</t>
@@ -310,9 +313,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1016,100 +1016,100 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.08516854811437806</v>
+        <v>0.1053773997229228</v>
       </c>
       <c r="AP2">
-        <v>0.007638635494563779</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.2789032759259641</v>
+        <v>0.4754299486949791</v>
       </c>
       <c r="AR2">
-        <v>0.03923809473610632</v>
+        <v>0.01764567738245761</v>
       </c>
       <c r="AS2">
-        <v>0.00159525613373561</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.02464066394083077</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.04956295807748531</v>
+        <v>0.03736719061048996</v>
       </c>
       <c r="AV2">
-        <v>0.01112285862560076</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0002123914666817545</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.09292474302076524</v>
+        <v>0.120192501423347</v>
       </c>
       <c r="AY2">
-        <v>0.008837507906814798</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.004634623135164612</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.005970055510201395</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0711369735854048</v>
+        <v>0.07857570041381515</v>
       </c>
       <c r="BC2">
-        <v>0.005361624073570296</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.01909023177042466</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.07840237458545171</v>
+        <v>0.09245333706544444</v>
       </c>
       <c r="BF2">
-        <v>0.003757536435140332</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.007540549381637541</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.05655687620821654</v>
+        <v>0.05072626805011146</v>
       </c>
       <c r="BI2">
-        <v>0.04163917382635851</v>
+        <v>0.02223197663643263</v>
       </c>
       <c r="BJ2">
-        <v>0.01749852257845291</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0009653376171561808</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0004523141218994786</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.01685465281008499</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.00521031324482265</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.000456386758559399</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.320701041086589E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.01306875937126094</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.02539942437616903</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.02350055215905173</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.002656464307004423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -1234,100 +1234,100 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0857002670956465</v>
+        <v>0.1157560362815046</v>
       </c>
       <c r="AP3">
-        <v>0.1890461935933762</v>
+        <v>0.3305290605593705</v>
       </c>
       <c r="AQ3">
-        <v>0.04956014656443426</v>
+        <v>0.04064980570912141</v>
       </c>
       <c r="AR3">
-        <v>0.0001989547730391222</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.02590736071296167</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.03595149208127125</v>
+        <v>0.0123683631912524</v>
       </c>
       <c r="AU3">
-        <v>0.02910088577780513</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>5.132133393345735E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.1415687674698234</v>
+        <v>0.2318616941807993</v>
       </c>
       <c r="AX3">
-        <v>0.0002792704462042901</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.01575130443425728</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.03145485226612948</v>
+        <v>0.003023467219881161</v>
       </c>
       <c r="BA3">
-        <v>0.05256234912724426</v>
+        <v>0.04688896912620713</v>
       </c>
       <c r="BB3">
-        <v>0.002676939309930768</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.06769425923342286</v>
+        <v>0.0783360344024198</v>
       </c>
       <c r="BD3">
-        <v>0.04980413067475936</v>
+        <v>0.04115685235359094</v>
       </c>
       <c r="BE3">
-        <v>0.006510181166959709</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.03548029983793137</v>
+        <v>0.01138913366041452</v>
       </c>
       <c r="BG3">
-        <v>0.02558535817866346</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.07236395926689111</v>
+        <v>0.08804058331543828</v>
       </c>
       <c r="BI3">
-        <v>0.01023901866812264</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0007662616005865862</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.004021469802913399</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.009994359778589416</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.006917657032937319</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0005727799414455385</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0003441378246944437</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.002845595931612141</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01314992227945014</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01426028977738931</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.006634837664965398</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0130053763526089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:72">
@@ -1452,100 +1452,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2187898900415919</v>
+        <v>0.3463687420169566</v>
       </c>
       <c r="AP4">
-        <v>0.08979235010834903</v>
+        <v>0.1096997359588677</v>
       </c>
       <c r="AQ4">
-        <v>0.1348708319513669</v>
+        <v>0.1924042549591197</v>
       </c>
       <c r="AR4">
-        <v>2.986629568419002E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.006730610980907335</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.002141690750597925</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.1099401347836959</v>
+        <v>0.1466644422304322</v>
       </c>
       <c r="AV4">
-        <v>2.723214683545077E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.04999152681708515</v>
+        <v>0.03667802334704749</v>
       </c>
       <c r="AX4">
-        <v>0.01680891256043343</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.005393173761829378</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0006852313833125192</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.006795247456898443</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.03414542935852361</v>
+        <v>0.007605529892070243</v>
       </c>
       <c r="BC4">
-        <v>0.02900263637298731</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.01118626237747652</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.04481570958018236</v>
+        <v>0.0271820630238504</v>
       </c>
       <c r="BF4">
-        <v>0.01150232204250315</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.003518836462377451</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.1027087675159361</v>
+        <v>0.1333972085716555</v>
       </c>
       <c r="BI4">
-        <v>7.691097210790612E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.009212779818822792</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0105909478930511</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.004823200823316398</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.02502923727255492</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0002459742685713435</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.913403372643291E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.009898460774275527</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.01660197530225404</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.02188771067937595</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.02228137490477519</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0004556305085945014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -1670,100 +1670,100 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.1410612498598294</v>
+        <v>0.2030340400246083</v>
       </c>
       <c r="AP5">
-        <v>0.2181479010517564</v>
+        <v>0.343958207933921</v>
       </c>
       <c r="AQ5">
-        <v>0.139009907792523</v>
+        <v>0.1992839267499666</v>
       </c>
       <c r="AR5">
-        <v>0.0009527868245702934</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.02004298887845229</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01058938382466851</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.07119636642925078</v>
+        <v>0.07531217882944308</v>
       </c>
       <c r="AV5">
-        <v>0.0007846984720188629</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.06062452040204066</v>
+        <v>0.05598550447514212</v>
       </c>
       <c r="AX5">
-        <v>0.001648425688132459</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01979438622230643</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0004095671879848328</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01138671932311719</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001017114295013625</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01411424735657834</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.02783086720667993</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.003574487511241921</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.006432554633495169</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01967492750313842</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.07855282177717011</v>
+        <v>0.08876071152139267</v>
       </c>
       <c r="BI5">
-        <v>0.007451617174862648</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.006053459778593355</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.00454204377325507</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.008157051898241114</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01545057873879046</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0002816753304646522</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0002995345903038083</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.01399543170076312</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.03781271184711886</v>
+        <v>0.01428262739587988</v>
       </c>
       <c r="BR5">
-        <v>0.04060254888510798</v>
+        <v>0.01938280306964649</v>
       </c>
       <c r="BS5">
-        <v>0.007166029367500628</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01134139467502989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:72">
@@ -1888,100 +1888,100 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.1188820355649674</v>
+        <v>0.1763793183666734</v>
       </c>
       <c r="AP6">
-        <v>0.005786308126619777</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.2175012574437525</v>
+        <v>0.37208130721365</v>
       </c>
       <c r="AR6">
-        <v>0.02269875898702528</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002051816793944122</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.02831367582675214</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.1014092425106901</v>
+        <v>0.1417059526039964</v>
       </c>
       <c r="AV6">
-        <v>0.007779097701871288</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01001468618428014</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.07044701197158623</v>
+        <v>0.08026387285316523</v>
       </c>
       <c r="AY6">
-        <v>0.01442134090515175</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002151972213359103</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001187283415686271</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.04899088878928888</v>
+        <v>0.03768590580245786</v>
       </c>
       <c r="BC6">
-        <v>0.01730633370438853</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002759822116112977</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.06249083821075188</v>
+        <v>0.0644754798913834</v>
       </c>
       <c r="BF6">
-        <v>0.003933799594103377</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.003164164163584994</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.08948374528592168</v>
+        <v>0.1180407534631549</v>
       </c>
       <c r="BI6">
-        <v>0.01783992562148506</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.03042921637377231</v>
+        <v>0.000851745698178119</v>
       </c>
       <c r="BK6">
-        <v>0.00084904715619928</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>4.674502104369253E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.02655222911365296</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001611948771941206</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0006340497657380433</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.00403769129578899</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.02467264396018976</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0286783116644551</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.03429126026258073</v>
+        <v>0.008515664107340773</v>
       </c>
       <c r="BT6">
-        <v>0.0006514065574321442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -1995,34 +1995,34 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1860810802705286</v>
+        <v>0.2510749967595158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3496732033206109</v>
+        <v>0.5093939917515088</v>
       </c>
       <c r="G7">
-        <v>0.09816539050396743</v>
+        <v>0.1122523431921837</v>
       </c>
       <c r="H7">
-        <v>0.01450157101086798</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01509104302161137</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.03893809780742775</v>
+        <v>0.01872990188990336</v>
       </c>
       <c r="L7">
-        <v>0.02162705282968099</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.05396818253326261</v>
+        <v>0.0424630518034451</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.006750841620154678</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.01911210526238342</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.0005831596258784403</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.05662759354985082</v>
+        <v>0.04666237612461297</v>
       </c>
       <c r="X7">
-        <v>0.02532085923108524</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.002471018228801803</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0068573222584347</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.006887783472137666</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2079,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.02181674360412724</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.01888713166852091</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.03937724771890322</v>
+        <v>0.0194233384788303</v>
       </c>
       <c r="AI7">
-        <v>0.0172625724617642</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -2213,52 +2213,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.252462586395978</v>
+        <v>0.3918405453404304</v>
       </c>
       <c r="E8">
-        <v>0.04301719803608687</v>
+        <v>0.02578495687089037</v>
       </c>
       <c r="F8">
-        <v>0.2091303127115708</v>
+        <v>0.3161070996557107</v>
       </c>
       <c r="G8">
-        <v>0.07249350710455799</v>
+        <v>0.0773018116771121</v>
       </c>
       <c r="H8">
-        <v>0.02722287274390204</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0370695158965335</v>
+        <v>0.01538996893311388</v>
       </c>
       <c r="K8">
-        <v>0.02075312313879046</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07440930635136754</v>
+        <v>0.08065012612877882</v>
       </c>
       <c r="M8">
-        <v>0.01195702814671794</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006268089539646562</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.02997335294600053</v>
+        <v>0.002987737854768809</v>
       </c>
       <c r="Q8">
-        <v>0.00977353977527963</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.0002351407420100123</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2267,16 +2267,16 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.002598146884753448</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.06418432779284287</v>
+        <v>0.06277954624808117</v>
       </c>
       <c r="X8">
-        <v>0.007162580639616676</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.002243627806847369</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.01399646937573895</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.01826700488774794</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2297,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.02541415984471382</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.01417957424299343</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.04380292833672676</v>
+        <v>0.02715820729111382</v>
       </c>
       <c r="AI8">
-        <v>0.01338560665957702</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -2542,100 +2542,100 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.1611387647128754</v>
+        <v>0.2414769066131393</v>
       </c>
       <c r="AP9">
-        <v>0.02239038889362929</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>0.1551229017104862</v>
+        <v>0.2303993889042757</v>
       </c>
       <c r="AR9">
-        <v>0.005178771286365396</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.02279957458306026</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0.0009437736230940476</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>0.08021628730968317</v>
+        <v>0.09246749996226231</v>
       </c>
       <c r="AV9">
-        <v>0.0001673592557443847</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>0.04085637631939913</v>
+        <v>0.01999076456436417</v>
       </c>
       <c r="AX9">
-        <v>0.08290795904329527</v>
+        <v>0.09742390293947338</v>
       </c>
       <c r="AY9">
-        <v>0.01489887297515228</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0.01498424039332689</v>
+        <v>0</v>
       </c>
       <c r="BA9">
-        <v>2.112841477587528E-05</v>
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>0.08769614546211255</v>
+        <v>0.1062407958485578</v>
       </c>
       <c r="BC9">
-        <v>0.009640964702634289</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>0.008634060763536688</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>0.06772200366615372</v>
+        <v>0.06946071801496818</v>
       </c>
       <c r="BF9">
-        <v>0.0007040055999410029</v>
+        <v>0</v>
       </c>
       <c r="BG9">
-        <v>0.0007537845848843024</v>
+        <v>0</v>
       </c>
       <c r="BH9">
-        <v>0.1074091519582462</v>
+        <v>0.1425400231529592</v>
       </c>
       <c r="BI9">
-        <v>0.01635479336019185</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>0.01983483612709533</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>0.00675342864905319</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>0.003599023019577584</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>0.01007983374290513</v>
+        <v>0</v>
       </c>
       <c r="BN9">
-        <v>0.01008865240674525</v>
+        <v>0</v>
       </c>
       <c r="BO9">
-        <v>1.007982927504423E-05</v>
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>0.0009081471683665025</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>0.01292149536453875</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>0.007155815817948994</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>0.01245660326846857</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>0.01565077598743738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -2649,34 +2649,34 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1468410307373983</v>
+        <v>0.1866439781142979</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3118089447230479</v>
+        <v>0.4471267632009658</v>
       </c>
       <c r="G10">
-        <v>0.08793340612239785</v>
+        <v>0.09362939272110395</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.008033665624678355</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04354558377454613</v>
+        <v>0.02354143858654147</v>
       </c>
       <c r="K10">
-        <v>0.03699473317176662</v>
+        <v>0.01319770707856399</v>
       </c>
       <c r="L10">
-        <v>0.006574568819604006</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.1115287168804909</v>
+        <v>0.1308861665552457</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2688,16 +2688,16 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.0408560695011306</v>
+        <v>0.01929472083674581</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.005456398351982032</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0.02502795311246515</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2706,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.07396570969948403</v>
+        <v>0.07157453139939154</v>
       </c>
       <c r="X10">
-        <v>0.03756952723955124</v>
+        <v>0.01410530150714393</v>
       </c>
       <c r="Y10">
-        <v>0.005883947913943992</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.006778270460288483</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2733,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.003930502460742998</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.01157865072461176</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.02093427213557183</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.01475804854629809</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -2978,100 +2978,100 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.1849880283976083</v>
+        <v>0.2890280215794869</v>
       </c>
       <c r="AP11">
-        <v>0.1040083888174955</v>
+        <v>0.1380138738543772</v>
       </c>
       <c r="AQ11">
-        <v>0.143977701958174</v>
+        <v>0.2125502856042254</v>
       </c>
       <c r="AR11">
-        <v>0.005752759634836062</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.01979345670257429</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>0.0003168601502928316</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>0.07499416827332422</v>
+        <v>0.08390696735164158</v>
       </c>
       <c r="AV11">
-        <v>0.0001162504183760285</v>
+        <v>0</v>
       </c>
       <c r="AW11">
-        <v>0.09386301752559439</v>
+        <v>0.1190943700513806</v>
       </c>
       <c r="AX11">
-        <v>0.02981383787911735</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>0.002331936520834579</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>0.01718007606386689</v>
+        <v>0</v>
       </c>
       <c r="BA11">
-        <v>0.0216694343176553</v>
+        <v>0</v>
       </c>
       <c r="BB11">
-        <v>0.03407059052605797</v>
+        <v>0.00759100388959394</v>
       </c>
       <c r="BC11">
-        <v>0.04459288192575368</v>
+        <v>0.02721340374318049</v>
       </c>
       <c r="BD11">
-        <v>0.002861928628099979</v>
+        <v>0</v>
       </c>
       <c r="BE11">
-        <v>0.02177265330183028</v>
+        <v>0</v>
       </c>
       <c r="BF11">
-        <v>0.01490601436609126</v>
+        <v>0</v>
       </c>
       <c r="BG11">
-        <v>0.01434859367777289</v>
+        <v>0</v>
       </c>
       <c r="BH11">
-        <v>0.09574398430790357</v>
+        <v>0.1226020739261138</v>
       </c>
       <c r="BI11">
-        <v>0.0003451059883465728</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0.006289854480027532</v>
+        <v>0</v>
       </c>
       <c r="BK11">
-        <v>0.009449256828369307</v>
+        <v>0</v>
       </c>
       <c r="BL11">
-        <v>0.0005898250032969319</v>
+        <v>0</v>
       </c>
       <c r="BM11">
-        <v>0.006792142575216231</v>
+        <v>0</v>
       </c>
       <c r="BN11">
-        <v>0.003839983468559599</v>
+        <v>0</v>
       </c>
       <c r="BO11">
-        <v>0.0009437647410718933</v>
+        <v>0</v>
       </c>
       <c r="BP11">
-        <v>0.0002150405973245776</v>
+        <v>0</v>
       </c>
       <c r="BQ11">
-        <v>0.008625555224853138</v>
+        <v>0</v>
       </c>
       <c r="BR11">
-        <v>0.01009442718318143</v>
+        <v>0</v>
       </c>
       <c r="BS11">
-        <v>0.01732004890209751</v>
+        <v>0</v>
       </c>
       <c r="BT11">
-        <v>0.008392431614395802</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3427,100 +3427,100 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.08516854811437806</v>
+        <v>0.1053773997229228</v>
       </c>
       <c r="AP2">
-        <v>0.09280718360894184</v>
+        <v>0.1053773997229228</v>
       </c>
       <c r="AQ2">
-        <v>0.3717104595349059</v>
+        <v>0.5808073484179019</v>
       </c>
       <c r="AR2">
-        <v>0.4109485542710123</v>
+        <v>0.5984530258003595</v>
       </c>
       <c r="AS2">
-        <v>0.4125438104047479</v>
+        <v>0.5984530258003595</v>
       </c>
       <c r="AT2">
-        <v>0.4371844743455787</v>
+        <v>0.5984530258003595</v>
       </c>
       <c r="AU2">
-        <v>0.486747432423064</v>
+        <v>0.6358202164108495</v>
       </c>
       <c r="AV2">
-        <v>0.4978702910486647</v>
+        <v>0.6358202164108495</v>
       </c>
       <c r="AW2">
-        <v>0.4980826825153464</v>
+        <v>0.6358202164108495</v>
       </c>
       <c r="AX2">
-        <v>0.5910074255361116</v>
+        <v>0.7560127178341965</v>
       </c>
       <c r="AY2">
-        <v>0.5998449334429264</v>
+        <v>0.7560127178341965</v>
       </c>
       <c r="AZ2">
-        <v>0.604479556578091</v>
+        <v>0.7560127178341965</v>
       </c>
       <c r="BA2">
-        <v>0.6104496120882924</v>
+        <v>0.7560127178341965</v>
       </c>
       <c r="BB2">
-        <v>0.6815865856736972</v>
+        <v>0.8345884182480117</v>
       </c>
       <c r="BC2">
-        <v>0.6869482097472676</v>
+        <v>0.8345884182480117</v>
       </c>
       <c r="BD2">
-        <v>0.7060384415176922</v>
+        <v>0.8345884182480117</v>
       </c>
       <c r="BE2">
-        <v>0.784440816103144</v>
+        <v>0.9270417553134561</v>
       </c>
       <c r="BF2">
-        <v>0.7881983525382843</v>
+        <v>0.9270417553134561</v>
       </c>
       <c r="BG2">
-        <v>0.7957389019199218</v>
+        <v>0.9270417553134561</v>
       </c>
       <c r="BH2">
-        <v>0.8522957781281384</v>
+        <v>0.9777680233635676</v>
       </c>
       <c r="BI2">
-        <v>0.8939349519544969</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.9114334745329498</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0.912398812150106</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0.9128511262720055</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.9297057790820905</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.9349160923269132</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.9353724790854726</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.9353747997865137</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.9484435591577747</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9738429835339437</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9973435356929955</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:72">
@@ -3645,97 +3645,97 @@
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0857002670956465</v>
+        <v>0.1157560362815046</v>
       </c>
       <c r="AP3">
-        <v>0.2747464606890226</v>
+        <v>0.4462850968408751</v>
       </c>
       <c r="AQ3">
-        <v>0.3243066072534569</v>
+        <v>0.4869349025499966</v>
       </c>
       <c r="AR3">
-        <v>0.324505562026496</v>
+        <v>0.4869349025499966</v>
       </c>
       <c r="AS3">
-        <v>0.3504129227394577</v>
+        <v>0.4869349025499966</v>
       </c>
       <c r="AT3">
-        <v>0.3863644148207289</v>
+        <v>0.4993032657412489</v>
       </c>
       <c r="AU3">
-        <v>0.415465300598534</v>
+        <v>0.4993032657412489</v>
       </c>
       <c r="AV3">
-        <v>0.4155166219324675</v>
+        <v>0.4993032657412489</v>
       </c>
       <c r="AW3">
-        <v>0.5570853894022909</v>
+        <v>0.7311649599220482</v>
       </c>
       <c r="AX3">
-        <v>0.5573646598484951</v>
+        <v>0.7311649599220482</v>
       </c>
       <c r="AY3">
-        <v>0.5731159642827525</v>
+        <v>0.7311649599220482</v>
       </c>
       <c r="AZ3">
-        <v>0.6045708165488819</v>
+        <v>0.7341884271419293</v>
       </c>
       <c r="BA3">
-        <v>0.6571331656761261</v>
+        <v>0.7810773962681364</v>
       </c>
       <c r="BB3">
-        <v>0.6598101049860569</v>
+        <v>0.7810773962681364</v>
       </c>
       <c r="BC3">
-        <v>0.7275043642194797</v>
+        <v>0.8594134306705562</v>
       </c>
       <c r="BD3">
-        <v>0.777308494894239</v>
+        <v>0.9005702830241471</v>
       </c>
       <c r="BE3">
-        <v>0.7838186760611987</v>
+        <v>0.9005702830241471</v>
       </c>
       <c r="BF3">
-        <v>0.81929897589913</v>
+        <v>0.9119594166845616</v>
       </c>
       <c r="BG3">
-        <v>0.8448843340777935</v>
+        <v>0.9119594166845616</v>
       </c>
       <c r="BH3">
-        <v>0.9172482933446846</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI3">
-        <v>0.9274873120128072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ3">
-        <v>0.9282535736133938</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK3">
-        <v>0.9322750434163072</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL3">
-        <v>0.9422694031948966</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM3">
-        <v>0.9491870602278339</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN3">
-        <v>0.9497598401692795</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO3">
-        <v>0.9501039779939739</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP3">
-        <v>0.9529495739255861</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ3">
-        <v>0.9660994962050362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR3">
-        <v>0.9803597859824256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS3">
-        <v>0.986994623647391</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT3">
         <v>0.9999999999999999</v>
@@ -3863,100 +3863,100 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.2187898900415919</v>
+        <v>0.3463687420169566</v>
       </c>
       <c r="AP4">
-        <v>0.3085822401499409</v>
+        <v>0.4560684779758243</v>
       </c>
       <c r="AQ4">
-        <v>0.4434530721013078</v>
+        <v>0.648472732934944</v>
       </c>
       <c r="AR4">
-        <v>0.443482938396992</v>
+        <v>0.648472732934944</v>
       </c>
       <c r="AS4">
-        <v>0.4502135493778993</v>
+        <v>0.648472732934944</v>
       </c>
       <c r="AT4">
-        <v>0.4523552401284973</v>
+        <v>0.648472732934944</v>
       </c>
       <c r="AU4">
-        <v>0.5622953749121932</v>
+        <v>0.7951371751653762</v>
       </c>
       <c r="AV4">
-        <v>0.5623226070590286</v>
+        <v>0.7951371751653762</v>
       </c>
       <c r="AW4">
-        <v>0.6123141338761138</v>
+        <v>0.8318151985124237</v>
       </c>
       <c r="AX4">
-        <v>0.6291230464365472</v>
+        <v>0.8318151985124237</v>
       </c>
       <c r="AY4">
-        <v>0.6345162201983765</v>
+        <v>0.8318151985124237</v>
       </c>
       <c r="AZ4">
-        <v>0.6352014515816891</v>
+        <v>0.8318151985124237</v>
       </c>
       <c r="BA4">
-        <v>0.6419966990385875</v>
+        <v>0.8318151985124237</v>
       </c>
       <c r="BB4">
-        <v>0.6761421283971111</v>
+        <v>0.8394207284044939</v>
       </c>
       <c r="BC4">
-        <v>0.7051447647700984</v>
+        <v>0.8394207284044939</v>
       </c>
       <c r="BD4">
-        <v>0.7163310271475749</v>
+        <v>0.8394207284044939</v>
       </c>
       <c r="BE4">
-        <v>0.7611467367277572</v>
+        <v>0.8666027914283443</v>
       </c>
       <c r="BF4">
-        <v>0.7726490587702604</v>
+        <v>0.8666027914283443</v>
       </c>
       <c r="BG4">
-        <v>0.7761678952326379</v>
+        <v>0.8666027914283443</v>
       </c>
       <c r="BH4">
-        <v>0.8788766627485739</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI4">
-        <v>0.8789535737206818</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ4">
-        <v>0.8881663535395046</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK4">
-        <v>0.8987573014325557</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL4">
-        <v>0.9035805022558722</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM4">
-        <v>0.9286097395284271</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN4">
-        <v>0.9288557137969984</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO4">
-        <v>0.9288748478307248</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP4">
-        <v>0.9387733086050003</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ4">
-        <v>0.9553752839072543</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR4">
-        <v>0.9772629945866302</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS4">
-        <v>0.9995443694914055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -4081,97 +4081,97 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.1410612498598294</v>
+        <v>0.2030340400246083</v>
       </c>
       <c r="AP5">
-        <v>0.3592091509115858</v>
+        <v>0.5469922479585292</v>
       </c>
       <c r="AQ5">
-        <v>0.4982190587041088</v>
+        <v>0.7462761747084957</v>
       </c>
       <c r="AR5">
-        <v>0.499171845528679</v>
+        <v>0.7462761747084957</v>
       </c>
       <c r="AS5">
-        <v>0.5192148344071313</v>
+        <v>0.7462761747084957</v>
       </c>
       <c r="AT5">
-        <v>0.5298042182317999</v>
+        <v>0.7462761747084957</v>
       </c>
       <c r="AU5">
-        <v>0.6010005846610507</v>
+        <v>0.8215883535379388</v>
       </c>
       <c r="AV5">
-        <v>0.6017852831330696</v>
+        <v>0.8215883535379388</v>
       </c>
       <c r="AW5">
-        <v>0.6624098035351103</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="AX5">
-        <v>0.6640582292232428</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="AY5">
-        <v>0.6838526154455492</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="AZ5">
-        <v>0.684262182633534</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BA5">
-        <v>0.6956489019566512</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BB5">
-        <v>0.6966660162516648</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BC5">
-        <v>0.7107802636082431</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BD5">
-        <v>0.738611130814923</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BE5">
-        <v>0.7421856183261649</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BF5">
-        <v>0.74861817295966</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BG5">
-        <v>0.7682931004627984</v>
+        <v>0.877573858013081</v>
       </c>
       <c r="BH5">
-        <v>0.8468459222399686</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BI5">
-        <v>0.8542975394148312</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BJ5">
-        <v>0.8603509991934246</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BK5">
-        <v>0.8648930429666797</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BL5">
-        <v>0.8730500948649208</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BM5">
-        <v>0.8885006736037112</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BN5">
-        <v>0.8887823489341758</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BO5">
-        <v>0.8890818835244797</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BP5">
-        <v>0.9030773152252428</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="BQ5">
-        <v>0.9408900270723617</v>
+        <v>0.9806171969303535</v>
       </c>
       <c r="BR5">
-        <v>0.9814925759574696</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9886586053249703</v>
+        <v>1</v>
       </c>
       <c r="BT5">
         <v>1</v>
@@ -4299,97 +4299,97 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.1188820355649674</v>
+        <v>0.1763793183666734</v>
       </c>
       <c r="AP6">
-        <v>0.1246683436915872</v>
+        <v>0.1763793183666734</v>
       </c>
       <c r="AQ6">
-        <v>0.3421696011353397</v>
+        <v>0.5484606255803234</v>
       </c>
       <c r="AR6">
-        <v>0.364868360122365</v>
+        <v>0.5484606255803234</v>
       </c>
       <c r="AS6">
-        <v>0.3669201769163091</v>
+        <v>0.5484606255803234</v>
       </c>
       <c r="AT6">
-        <v>0.3952338527430612</v>
+        <v>0.5484606255803234</v>
       </c>
       <c r="AU6">
-        <v>0.4966430952537513</v>
+        <v>0.6901665781843198</v>
       </c>
       <c r="AV6">
-        <v>0.5044221929556226</v>
+        <v>0.6901665781843198</v>
       </c>
       <c r="AW6">
-        <v>0.5144368791399028</v>
+        <v>0.6901665781843198</v>
       </c>
       <c r="AX6">
-        <v>0.584883891111489</v>
+        <v>0.7704304510374851</v>
       </c>
       <c r="AY6">
-        <v>0.5993052320166408</v>
+        <v>0.7704304510374851</v>
       </c>
       <c r="AZ6">
-        <v>0.6014572042299998</v>
+        <v>0.7704304510374851</v>
       </c>
       <c r="BA6">
-        <v>0.6015759325715685</v>
+        <v>0.7704304510374851</v>
       </c>
       <c r="BB6">
-        <v>0.6505668213608574</v>
+        <v>0.808116356839943</v>
       </c>
       <c r="BC6">
-        <v>0.6678731550652459</v>
+        <v>0.808116356839943</v>
       </c>
       <c r="BD6">
-        <v>0.6706329771813589</v>
+        <v>0.808116356839943</v>
       </c>
       <c r="BE6">
-        <v>0.7331238153921108</v>
+        <v>0.8725918367313263</v>
       </c>
       <c r="BF6">
-        <v>0.7370576149862141</v>
+        <v>0.8725918367313263</v>
       </c>
       <c r="BG6">
-        <v>0.7402217791497991</v>
+        <v>0.8725918367313263</v>
       </c>
       <c r="BH6">
-        <v>0.8297055244357208</v>
+        <v>0.9906325901944812</v>
       </c>
       <c r="BI6">
-        <v>0.8475454500572058</v>
+        <v>0.9906325901944812</v>
       </c>
       <c r="BJ6">
-        <v>0.8779746664309781</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BK6">
-        <v>0.8788237135871774</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BL6">
-        <v>0.8788704586082211</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BM6">
-        <v>0.9054226877218741</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BN6">
-        <v>0.9070346364938152</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BO6">
-        <v>0.9076686862595532</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BP6">
-        <v>0.9117063775553422</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BQ6">
-        <v>0.936379021515532</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BR6">
-        <v>0.9650573331799871</v>
+        <v>0.9914843358926594</v>
       </c>
       <c r="BS6">
-        <v>0.9993485934425679</v>
+        <v>1</v>
       </c>
       <c r="BT6">
         <v>1</v>
@@ -4406,97 +4406,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1860810802705286</v>
+        <v>0.2510749967595158</v>
       </c>
       <c r="E7">
-        <v>0.1860810802705286</v>
+        <v>0.2510749967595158</v>
       </c>
       <c r="F7">
-        <v>0.5357542835911395</v>
+        <v>0.7604689885110246</v>
       </c>
       <c r="G7">
-        <v>0.633919674095107</v>
+        <v>0.8727213317032083</v>
       </c>
       <c r="H7">
-        <v>0.648421245105975</v>
+        <v>0.8727213317032083</v>
       </c>
       <c r="I7">
-        <v>0.648421245105975</v>
+        <v>0.8727213317032083</v>
       </c>
       <c r="J7">
-        <v>0.6635122881275863</v>
+        <v>0.8727213317032083</v>
       </c>
       <c r="K7">
-        <v>0.7024503859350141</v>
+        <v>0.8914512335931116</v>
       </c>
       <c r="L7">
-        <v>0.7240774387646951</v>
+        <v>0.8914512335931116</v>
       </c>
       <c r="M7">
-        <v>0.7780456212979577</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="N7">
-        <v>0.7780456212979577</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="O7">
-        <v>0.7780456212979577</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="P7">
-        <v>0.7847964629181124</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="Q7">
-        <v>0.8039085681804958</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="R7">
-        <v>0.8039085681804958</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="S7">
-        <v>0.8039085681804958</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="T7">
-        <v>0.8044917278063742</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="U7">
-        <v>0.8044917278063742</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="V7">
-        <v>0.8044917278063742</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="W7">
-        <v>0.861119321356225</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="X7">
-        <v>0.8864401805873103</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="Y7">
-        <v>0.8889111988161121</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="Z7">
-        <v>0.8889111988161121</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AA7">
-        <v>0.8889111988161121</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AB7">
-        <v>0.8957685210745469</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AC7">
-        <v>0.9026563045466846</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AD7">
-        <v>0.9026563045466846</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AE7">
-        <v>0.9026563045466846</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AF7">
-        <v>0.9244730481508118</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AG7">
-        <v>0.9433601798193327</v>
+        <v>0.9805766615211697</v>
       </c>
       <c r="AH7">
-        <v>0.9827374275382359</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -4624,97 +4624,97 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.252462586395978</v>
+        <v>0.3918405453404304</v>
       </c>
       <c r="E8">
-        <v>0.2954797844320649</v>
+        <v>0.4176255022113208</v>
       </c>
       <c r="F8">
-        <v>0.5046100971436357</v>
+        <v>0.7337326018670314</v>
       </c>
       <c r="G8">
-        <v>0.5771036042481936</v>
+        <v>0.8110344135441435</v>
       </c>
       <c r="H8">
-        <v>0.6043264769920956</v>
+        <v>0.8110344135441435</v>
       </c>
       <c r="I8">
-        <v>0.6043264769920956</v>
+        <v>0.8110344135441435</v>
       </c>
       <c r="J8">
-        <v>0.6413959928886291</v>
+        <v>0.8264243824772574</v>
       </c>
       <c r="K8">
-        <v>0.6621491160274195</v>
+        <v>0.8264243824772574</v>
       </c>
       <c r="L8">
-        <v>0.7365584223787871</v>
+        <v>0.9070745086060362</v>
       </c>
       <c r="M8">
-        <v>0.7485154505255051</v>
+        <v>0.9070745086060362</v>
       </c>
       <c r="N8">
-        <v>0.7485154505255051</v>
+        <v>0.9070745086060362</v>
       </c>
       <c r="O8">
-        <v>0.7547835400651516</v>
+        <v>0.9070745086060362</v>
       </c>
       <c r="P8">
-        <v>0.7847568930111521</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="Q8">
-        <v>0.7945304327864318</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="R8">
-        <v>0.7945304327864318</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="S8">
-        <v>0.7947655735284418</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="T8">
-        <v>0.7947655735284418</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="U8">
-        <v>0.7947655735284418</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="V8">
-        <v>0.7973637204131953</v>
+        <v>0.910062246460805</v>
       </c>
       <c r="W8">
-        <v>0.8615480482060381</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="X8">
-        <v>0.8687106288456549</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="Y8">
-        <v>0.8709542566525023</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="Z8">
-        <v>0.8709542566525023</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AA8">
-        <v>0.8709542566525023</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AB8">
-        <v>0.8849507260282412</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AC8">
-        <v>0.9032177309159891</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AD8">
-        <v>0.9032177309159891</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AE8">
-        <v>0.9032177309159891</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AF8">
-        <v>0.928631890760703</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AG8">
-        <v>0.9428114650036964</v>
+        <v>0.9728417927088862</v>
       </c>
       <c r="AH8">
-        <v>0.9866143933404231</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <v>1</v>
@@ -4953,100 +4953,100 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0.1611387647128754</v>
+        <v>0.2414769066131393</v>
       </c>
       <c r="AP9">
-        <v>0.1835291536065047</v>
+        <v>0.2414769066131393</v>
       </c>
       <c r="AQ9">
-        <v>0.3386520553169909</v>
+        <v>0.4718762955174151</v>
       </c>
       <c r="AR9">
-        <v>0.3438308266033563</v>
+        <v>0.4718762955174151</v>
       </c>
       <c r="AS9">
-        <v>0.3666304011864166</v>
+        <v>0.4718762955174151</v>
       </c>
       <c r="AT9">
-        <v>0.3675741748095107</v>
+        <v>0.4718762955174151</v>
       </c>
       <c r="AU9">
-        <v>0.4477904621191938</v>
+        <v>0.5643437954796774</v>
       </c>
       <c r="AV9">
-        <v>0.4479578213749382</v>
+        <v>0.5643437954796774</v>
       </c>
       <c r="AW9">
-        <v>0.4888141976943374</v>
+        <v>0.5843345600440416</v>
       </c>
       <c r="AX9">
-        <v>0.5717221567376326</v>
+        <v>0.6817584629835149</v>
       </c>
       <c r="AY9">
-        <v>0.5866210297127848</v>
+        <v>0.6817584629835149</v>
       </c>
       <c r="AZ9">
-        <v>0.6016052701061118</v>
+        <v>0.6817584629835149</v>
       </c>
       <c r="BA9">
-        <v>0.6016263985208876</v>
+        <v>0.6817584629835149</v>
       </c>
       <c r="BB9">
-        <v>0.6893225439830002</v>
+        <v>0.7879992588320728</v>
       </c>
       <c r="BC9">
-        <v>0.6989635086856345</v>
+        <v>0.7879992588320728</v>
       </c>
       <c r="BD9">
-        <v>0.7075975694491712</v>
+        <v>0.7879992588320728</v>
       </c>
       <c r="BE9">
-        <v>0.7753195731153248</v>
+        <v>0.857459976847041</v>
       </c>
       <c r="BF9">
-        <v>0.7760235787152658</v>
+        <v>0.857459976847041</v>
       </c>
       <c r="BG9">
-        <v>0.7767773633001501</v>
+        <v>0.857459976847041</v>
       </c>
       <c r="BH9">
-        <v>0.8841865152583963</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0.9005413086185882</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0.9203761447456835</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0.9271295733947367</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.9307285964143143</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0.9408084301572194</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.9508970825639647</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.9509071623932397</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.9518153095616062</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.964736804926145</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.971892620744094</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9843492240125625</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:72">
@@ -5060,97 +5060,97 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1468410307373983</v>
+        <v>0.1866439781142979</v>
       </c>
       <c r="E10">
-        <v>0.1468410307373983</v>
+        <v>0.1866439781142979</v>
       </c>
       <c r="F10">
-        <v>0.4586499754604463</v>
+        <v>0.6337707413152638</v>
       </c>
       <c r="G10">
-        <v>0.5465833815828441</v>
+        <v>0.7274001340363677</v>
       </c>
       <c r="H10">
-        <v>0.5465833815828441</v>
+        <v>0.7274001340363677</v>
       </c>
       <c r="I10">
-        <v>0.5546170472075225</v>
+        <v>0.7274001340363677</v>
       </c>
       <c r="J10">
-        <v>0.5981626309820686</v>
+        <v>0.7509415726229092</v>
       </c>
       <c r="K10">
-        <v>0.6351573641538352</v>
+        <v>0.7641392797014731</v>
       </c>
       <c r="L10">
-        <v>0.6417319329734392</v>
+        <v>0.7641392797014731</v>
       </c>
       <c r="M10">
-        <v>0.75326064985393</v>
+        <v>0.8950254462567188</v>
       </c>
       <c r="N10">
-        <v>0.75326064985393</v>
+        <v>0.8950254462567188</v>
       </c>
       <c r="O10">
-        <v>0.75326064985393</v>
+        <v>0.8950254462567188</v>
       </c>
       <c r="P10">
-        <v>0.75326064985393</v>
+        <v>0.8950254462567188</v>
       </c>
       <c r="Q10">
-        <v>0.7941167193550607</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="R10">
-        <v>0.7941167193550607</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="S10">
-        <v>0.7995731177070428</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="T10">
-        <v>0.824601070819508</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="U10">
-        <v>0.824601070819508</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="V10">
-        <v>0.824601070819508</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="W10">
-        <v>0.898566780518992</v>
+        <v>0.985894698492856</v>
       </c>
       <c r="X10">
-        <v>0.9361363077585432</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9420202556724872</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9420202556724872</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9420202556724872</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9420202556724872</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9487985261327756</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9487985261327756</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9487985261327756</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9527290285935186</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9643076793181303</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9852419514537022</v>
+        <v>1</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -5389,97 +5389,97 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>0.1849880283976083</v>
+        <v>0.2890280215794869</v>
       </c>
       <c r="AP11">
-        <v>0.2889964172151038</v>
+        <v>0.4270418954338641</v>
       </c>
       <c r="AQ11">
-        <v>0.4329741191732778</v>
+        <v>0.6395921810380895</v>
       </c>
       <c r="AR11">
-        <v>0.4387268788081138</v>
+        <v>0.6395921810380895</v>
       </c>
       <c r="AS11">
-        <v>0.4585203355106882</v>
+        <v>0.6395921810380895</v>
       </c>
       <c r="AT11">
-        <v>0.458837195660981</v>
+        <v>0.6395921810380895</v>
       </c>
       <c r="AU11">
-        <v>0.5338313639343052</v>
+        <v>0.7234991483897311</v>
       </c>
       <c r="AV11">
-        <v>0.5339476143526812</v>
+        <v>0.7234991483897311</v>
       </c>
       <c r="AW11">
-        <v>0.6278106318782757</v>
+        <v>0.8425935184411116</v>
       </c>
       <c r="AX11">
-        <v>0.6576244697573931</v>
+        <v>0.8425935184411116</v>
       </c>
       <c r="AY11">
-        <v>0.6599564062782277</v>
+        <v>0.8425935184411116</v>
       </c>
       <c r="AZ11">
-        <v>0.6771364823420946</v>
+        <v>0.8425935184411116</v>
       </c>
       <c r="BA11">
-        <v>0.6988059166597499</v>
+        <v>0.8425935184411116</v>
       </c>
       <c r="BB11">
-        <v>0.7328765071858079</v>
+        <v>0.8501845223307056</v>
       </c>
       <c r="BC11">
-        <v>0.7774693891115616</v>
+        <v>0.8773979260738861</v>
       </c>
       <c r="BD11">
-        <v>0.7803313177396616</v>
+        <v>0.8773979260738861</v>
       </c>
       <c r="BE11">
-        <v>0.8021039710414919</v>
+        <v>0.8773979260738861</v>
       </c>
       <c r="BF11">
-        <v>0.8170099854075832</v>
+        <v>0.8773979260738861</v>
       </c>
       <c r="BG11">
-        <v>0.831358579085356</v>
+        <v>0.8773979260738861</v>
       </c>
       <c r="BH11">
-        <v>0.9271025633932596</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.9274476693816062</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.9337375238616337</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.9431867806900029</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.9437766056932999</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.9505687482685161</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9544087317370757</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9553524964781477</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9555675370754723</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9641930923003253</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9742875194835068</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9916075683856043</v>
+        <v>1</v>
       </c>
       <c r="BT11">
         <v>1</v>
@@ -5544,34 +5544,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5808073484179019</v>
       </c>
       <c r="F2">
-        <v>0.5910074255361116</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -5585,34 +5585,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.7311649599220482</v>
+      </c>
+      <c r="F3">
         <v>48</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5570853894022909</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>2</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -5626,34 +5626,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.648472732934944</v>
       </c>
       <c r="F4">
-        <v>0.5622953749121932</v>
+        <v>42</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -5667,34 +5667,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5469922479585292</v>
       </c>
       <c r="F5">
-        <v>0.5192148344071313</v>
+        <v>41</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -5708,34 +5708,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5484606255803234</v>
       </c>
       <c r="F6">
-        <v>0.5044221929556226</v>
+        <v>42</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>2</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -5749,34 +5749,34 @@
         <v>77</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.7604689885110246</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5357542835911395</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -5790,34 +5790,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7337326018670314</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5046100971436357</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -5831,34 +5831,34 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>38</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5643437954796774</v>
       </c>
       <c r="F9">
-        <v>0.5717221567376326</v>
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -5872,34 +5872,34 @@
         <v>80</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6337707413152638</v>
       </c>
       <c r="F10">
-        <v>0.5465833815828441</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -5913,34 +5913,34 @@
         <v>81</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.6395921810380895</v>
       </c>
       <c r="F11">
-        <v>0.5338313639343052</v>
+        <v>42</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -6008,34 +6008,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7560127178341965</v>
       </c>
       <c r="F2">
-        <v>0.7060384415176922</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -6049,34 +6049,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7311649599220482</v>
       </c>
       <c r="F3">
-        <v>0.7275043642194797</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>2</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -6090,34 +6090,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7951371751653762</v>
       </c>
       <c r="F4">
-        <v>0.7051447647700984</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6131,34 +6131,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7462761747084957</v>
       </c>
       <c r="F5">
-        <v>0.7107802636082431</v>
+        <v>42</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -6172,34 +6172,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7704304510374851</v>
       </c>
       <c r="F6">
-        <v>0.7331238153921108</v>
+        <v>49</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>2</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -6213,34 +6213,34 @@
         <v>77</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7604689885110246</v>
       </c>
       <c r="F7">
-        <v>0.7024503859350141</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -6254,34 +6254,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7337326018670314</v>
       </c>
       <c r="F8">
-        <v>0.7365584223787871</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -6295,34 +6295,34 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>38</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7879992588320728</v>
       </c>
       <c r="F9">
-        <v>0.7075975694491712</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -6336,34 +6336,34 @@
         <v>80</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7274001340363677</v>
       </c>
       <c r="F10">
-        <v>0.75326064985393</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -6377,34 +6377,34 @@
         <v>81</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11">
-        <v>53</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7234991483897311</v>
       </c>
       <c r="F11">
-        <v>0.7328765071858079</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -6472,34 +6472,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8345884182480117</v>
       </c>
       <c r="F2">
-        <v>0.8522957781281384</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -6513,34 +6513,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8594134306705562</v>
       </c>
       <c r="F3">
-        <v>0.81929897589913</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>2</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -6554,34 +6554,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8318151985124237</v>
       </c>
       <c r="F4">
-        <v>0.8788766627485739</v>
+        <v>48</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -6595,34 +6595,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8215883535379388</v>
       </c>
       <c r="F5">
-        <v>0.8468459222399686</v>
+        <v>46</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -6636,34 +6636,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.808116356839943</v>
       </c>
       <c r="F6">
-        <v>0.8297055244357208</v>
+        <v>53</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>2</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -6677,34 +6677,34 @@
         <v>77</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8727213317032083</v>
       </c>
       <c r="F7">
-        <v>0.8039085681804958</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -6718,34 +6718,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8110344135441435</v>
       </c>
       <c r="F8">
-        <v>0.8615480482060381</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -6759,34 +6759,34 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>38</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.857459976847041</v>
       </c>
       <c r="F9">
-        <v>0.8841865152583963</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -6800,34 +6800,34 @@
         <v>80</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>19</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8950254462567188</v>
       </c>
       <c r="F10">
-        <v>0.824601070819508</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -6841,34 +6841,34 @@
         <v>81</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8425935184411116</v>
       </c>
       <c r="F11">
-        <v>0.8021039710414919</v>
+        <v>48</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
@@ -6936,34 +6936,34 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>38</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9270417553134561</v>
       </c>
       <c r="F2">
-        <v>0.9114334745329498</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
@@ -6977,34 +6977,34 @@
         <v>73</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>38</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9005702830241471</v>
       </c>
       <c r="F3">
-        <v>0.9172482933446846</v>
+        <v>55</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3">
         <v>2</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>96</v>
@@ -7018,34 +7018,34 @@
         <v>74</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>38</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="F4">
-        <v>0.9035805022558722</v>
+        <v>59</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>96</v>
@@ -7059,34 +7059,34 @@
         <v>75</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>38</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9663345695344736</v>
       </c>
       <c r="F5">
-        <v>0.9030773152252428</v>
+        <v>59</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K5" t="s">
-        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
@@ -7100,34 +7100,34 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>38</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9906325901944812</v>
       </c>
       <c r="F6">
-        <v>0.9054226877218741</v>
+        <v>59</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6">
         <v>2</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
@@ -7141,34 +7141,34 @@
         <v>77</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9339142853965567</v>
       </c>
       <c r="F7">
-        <v>0.9026563045466846</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7">
         <v>2</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
@@ -7182,34 +7182,34 @@
         <v>78</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9070745086060362</v>
       </c>
       <c r="F8">
-        <v>0.9032177309159891</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
         <v>2</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
       </c>
       <c r="L8" t="s">
         <v>96</v>
@@ -7223,34 +7223,34 @@
         <v>79</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>38</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.9005413086185882</v>
+        <v>59</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9">
         <v>2</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>96</v>
@@ -7264,34 +7264,34 @@
         <v>80</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9143201670934645</v>
       </c>
       <c r="F10">
-        <v>0.9361363077585432</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>900</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10">
         <v>2</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>96</v>
@@ -7305,34 +7305,34 @@
         <v>81</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>59</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9271025633932596</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>21</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
         <v>2</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>96</v>
